--- a/Pruebas/Error.xlsx
+++ b/Pruebas/Error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS1"/>
+  <dimension ref="A1:CW1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,607 +423,307 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.159330203368318</v>
+        <v>0.01442482362919442</v>
       </c>
       <c r="B1" t="n">
-        <v>1.084948609053062</v>
+        <v>0.014185643328027</v>
       </c>
       <c r="C1" t="n">
-        <v>1.017239676420104</v>
+        <v>0.01887180358856504</v>
       </c>
       <c r="D1" t="n">
-        <v>0.955111917194831</v>
+        <v>0.0261355622458436</v>
       </c>
       <c r="E1" t="n">
-        <v>0.9016557370625066</v>
+        <v>0.03139469063827512</v>
       </c>
       <c r="F1" t="n">
-        <v>0.8572251819139595</v>
+        <v>0.03519430650419855</v>
       </c>
       <c r="G1" t="n">
-        <v>0.8148559411880082</v>
+        <v>0.03791300061794265</v>
       </c>
       <c r="H1" t="n">
-        <v>0.780224804193011</v>
+        <v>0.04025692572377437</v>
       </c>
       <c r="I1" t="n">
-        <v>0.7536169749454875</v>
+        <v>0.04219590839928855</v>
       </c>
       <c r="J1" t="n">
-        <v>0.7375008705730692</v>
+        <v>0.04386809979458706</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7333974353808034</v>
+        <v>0.04554499761977235</v>
       </c>
       <c r="L1" t="n">
-        <v>0.7418367845411131</v>
+        <v>0.04732730764289746</v>
       </c>
       <c r="M1" t="n">
-        <v>0.728928227399668</v>
+        <v>0.04737822657984223</v>
       </c>
       <c r="N1" t="n">
-        <v>0.703761171485677</v>
+        <v>0.04658769314142649</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6720780345592147</v>
+        <v>0.0453877757251638</v>
       </c>
       <c r="P1" t="n">
-        <v>0.6377454263635082</v>
+        <v>0.04403955624705064</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.6038114926232536</v>
+        <v>0.04270149464767533</v>
       </c>
       <c r="R1" t="n">
-        <v>0.5720772598676436</v>
+        <v>0.04146683007042822</v>
       </c>
       <c r="S1" t="n">
-        <v>0.5433712900554383</v>
+        <v>0.04043067447824155</v>
       </c>
       <c r="T1" t="n">
-        <v>0.5181461725173629</v>
+        <v>0.03957260784204917</v>
       </c>
       <c r="U1" t="n">
-        <v>0.4960340526296128</v>
+        <v>0.03890155745117837</v>
       </c>
       <c r="V1" t="n">
-        <v>0.4773204228287057</v>
+        <v>0.03841077717415702</v>
       </c>
       <c r="W1" t="n">
-        <v>0.4612105370467832</v>
+        <v>0.0380870321276118</v>
       </c>
       <c r="X1" t="n">
-        <v>0.4471652426767003</v>
+        <v>0.03791320709079641</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.4354773299791785</v>
+        <v>0.03792107250228544</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.4249043694509878</v>
+        <v>0.03804267638487847</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.4157437841493035</v>
+        <v>0.03819105486265103</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.4075275486678064</v>
+        <v>0.0382400609066249</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.3995557683920928</v>
+        <v>0.03827965805074071</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.3921830873819613</v>
+        <v>0.03820407187333567</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3848497768973165</v>
+        <v>0.03804198976791572</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3773717258097314</v>
+        <v>0.03786052651984281</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3696150703818545</v>
+        <v>0.03759046760782634</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3614952676423607</v>
+        <v>0.0373379816106889</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3529972429596003</v>
+        <v>0.03706222515245764</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.3446266716352031</v>
+        <v>0.03672866143024408</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.3360539735140532</v>
+        <v>0.03638608981783903</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3274531871200672</v>
+        <v>0.03610827878047152</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3190913940097272</v>
+        <v>0.03588625380159489</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3113259099583455</v>
+        <v>0.03578178023613788</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3045413770128872</v>
+        <v>0.03581251861200213</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.2975753999066211</v>
+        <v>0.03601509530836237</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2906952937018801</v>
+        <v>0.03643304656339913</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.2841315836762388</v>
+        <v>0.03720528566076449</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.2780552632996615</v>
+        <v>0.03757096650421046</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.2725751605567558</v>
+        <v>0.03768660326682221</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.2673534855490635</v>
+        <v>0.03766503373214539</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.2627094357917185</v>
+        <v>0.03752382150646732</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.258409380012639</v>
+        <v>0.03732740396051874</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.254616869045969</v>
+        <v>0.03733710815663278</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.2510383091477086</v>
+        <v>0.0376263813629171</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.2476402580071587</v>
+        <v>0.03822898927508918</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.2441202872680314</v>
+        <v>0.03894478189066493</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.2404671093333189</v>
+        <v>0.0394815701004962</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.2366945365155159</v>
+        <v>0.04029800791328143</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.2328372204322363</v>
+        <v>0.0409600363407604</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.2289473130315694</v>
+        <v>0.0419917903218485</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.2250919922855864</v>
+        <v>0.0435287474090741</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.2213440527776444</v>
+        <v>0.04512107012230419</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.217709829301742</v>
+        <v>0.04689143077752584</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.2141585646350306</v>
+        <v>0.04937605948732988</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.2107728193180309</v>
+        <v>0.05156269328000893</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.2076042817482908</v>
+        <v>0.05454855284077455</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.2046470272994957</v>
+        <v>0.0585051718188593</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.20198454152652</v>
+        <v>0.06133361503768003</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.199451934337308</v>
+        <v>0.06449137878201915</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.1971964972448133</v>
+        <v>0.06869479399478666</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.195312167933128</v>
+        <v>0.0718358482146193</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.1937129802976212</v>
+        <v>0.07387692649471737</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.1919510211461297</v>
+        <v>0.07534769791513567</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.190057453104225</v>
+        <v>0.07635971789282689</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.1880232009612689</v>
+        <v>0.07712479835657858</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.1858577911832052</v>
+        <v>0.07815925880609796</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.1835865141318841</v>
+        <v>0.07956723178773033</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.1812477042898136</v>
+        <v>0.0814718743048341</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.1788899560222043</v>
+        <v>0.08398765344242017</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.1765746129815251</v>
+        <v>0.08724802308620314</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.1743755725422298</v>
+        <v>0.09140144420687947</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.1722588518671058</v>
+        <v>0.09659093291532331</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.17012598717734</v>
+        <v>0.1029613876752476</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.16802904393639</v>
+        <v>0.1106541250017194</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.1660221354909844</v>
+        <v>0.1197908724895646</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.1641471687763617</v>
+        <v>0.1304570511164362</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.1623678055337525</v>
+        <v>0.1426547732844606</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.1607425223321965</v>
+        <v>0.1533621589637741</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.1592453213389269</v>
+        <v>0.156708553374545</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.1578554483338654</v>
+        <v>0.1602369872806705</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.1567011507416024</v>
+        <v>0.1652511304429618</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.1557571438603066</v>
+        <v>0.169053248026253</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.154681018549487</v>
+        <v>0.1718168744802681</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.1534653225154027</v>
+        <v>0.1742790214416338</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.1521129722621407</v>
+        <v>0.1756984316396075</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.1506597627302086</v>
+        <v>0.176322659300129</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.1491370615910793</v>
+        <v>0.1783859783805545</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.1475880541237284</v>
+        <v>0.1794731091850063</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.1460664463460677</v>
+        <v>0.1971807818171137</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.1445981329477675</v>
+        <v>0.2201613053016496</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.1431840450462878</v>
+        <v>0.2206746791724675</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.141888602343219</v>
+        <v>0.2218046165598631</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.1407367153310164</v>
+        <v>0.2237098811637408</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.1394918240372386</v>
-      </c>
-      <c r="CX1" t="n">
-        <v>0.1381843887885572</v>
-      </c>
-      <c r="CY1" t="n">
-        <v>0.1368533928634061</v>
-      </c>
-      <c r="CZ1" t="n">
-        <v>0.1355442353215134</v>
-      </c>
-      <c r="DA1" t="n">
-        <v>0.1342640210417415</v>
-      </c>
-      <c r="DB1" t="n">
-        <v>0.1330569739163585</v>
-      </c>
-      <c r="DC1" t="n">
-        <v>0.131941115761966</v>
-      </c>
-      <c r="DD1" t="n">
-        <v>0.1308801455994885</v>
-      </c>
-      <c r="DE1" t="n">
-        <v>0.1299549312385704</v>
-      </c>
-      <c r="DF1" t="n">
-        <v>0.1291680991521086</v>
-      </c>
-      <c r="DG1" t="n">
-        <v>0.1285357109613907</v>
-      </c>
-      <c r="DH1" t="n">
-        <v>0.1279726964429122</v>
-      </c>
-      <c r="DI1" t="n">
-        <v>0.1272900192621131</v>
-      </c>
-      <c r="DJ1" t="n">
-        <v>0.1264892177258693</v>
-      </c>
-      <c r="DK1" t="n">
-        <v>0.1255844996519112</v>
-      </c>
-      <c r="DL1" t="n">
-        <v>0.1245990267207458</v>
-      </c>
-      <c r="DM1" t="n">
-        <v>0.1235722280015926</v>
-      </c>
-      <c r="DN1" t="n">
-        <v>0.1225324786286801</v>
-      </c>
-      <c r="DO1" t="n">
-        <v>0.1215208199528888</v>
-      </c>
-      <c r="DP1" t="n">
-        <v>0.1205155427838139</v>
-      </c>
-      <c r="DQ1" t="n">
-        <v>0.1195560350527747</v>
-      </c>
-      <c r="DR1" t="n">
-        <v>0.1186695161182132</v>
-      </c>
-      <c r="DS1" t="n">
-        <v>0.1178891148909378</v>
-      </c>
-      <c r="DT1" t="n">
-        <v>0.1172312401992796</v>
-      </c>
-      <c r="DU1" t="n">
-        <v>0.1166424563404789</v>
-      </c>
-      <c r="DV1" t="n">
-        <v>0.1161130025113557</v>
-      </c>
-      <c r="DW1" t="n">
-        <v>0.1155779847383953</v>
-      </c>
-      <c r="DX1" t="n">
-        <v>0.1149581255668159</v>
-      </c>
-      <c r="DY1" t="n">
-        <v>0.1142597578222516</v>
-      </c>
-      <c r="DZ1" t="n">
-        <v>0.1134938678647196</v>
-      </c>
-      <c r="EA1" t="n">
-        <v>0.1126910464278774</v>
-      </c>
-      <c r="EB1" t="n">
-        <v>0.111882110273082</v>
-      </c>
-      <c r="EC1" t="n">
-        <v>0.1110742441458409</v>
-      </c>
-      <c r="ED1" t="n">
-        <v>0.1102686804224009</v>
-      </c>
-      <c r="EE1" t="n">
-        <v>0.1095096171866775</v>
-      </c>
-      <c r="EF1" t="n">
-        <v>0.1088083201750941</v>
-      </c>
-      <c r="EG1" t="n">
-        <v>0.1081991926349624</v>
-      </c>
-      <c r="EH1" t="n">
-        <v>0.1076591815223284</v>
-      </c>
-      <c r="EI1" t="n">
-        <v>0.1072179244533703</v>
-      </c>
-      <c r="EJ1" t="n">
-        <v>0.1068645520004688</v>
-      </c>
-      <c r="EK1" t="n">
-        <v>0.106416853957036</v>
-      </c>
-      <c r="EL1" t="n">
-        <v>0.1058803056524044</v>
-      </c>
-      <c r="EM1" t="n">
-        <v>0.1052695289616418</v>
-      </c>
-      <c r="EN1" t="n">
-        <v>0.104607713162346</v>
-      </c>
-      <c r="EO1" t="n">
-        <v>0.1039262350548446</v>
-      </c>
-      <c r="EP1" t="n">
-        <v>0.1032638541063512</v>
-      </c>
-      <c r="EQ1" t="n">
-        <v>0.102600716367461</v>
-      </c>
-      <c r="ER1" t="n">
-        <v>0.1019742641137597</v>
-      </c>
-      <c r="ES1" t="n">
-        <v>0.1014132209990296</v>
-      </c>
-      <c r="ET1" t="n">
-        <v>0.1009369839158645</v>
-      </c>
-      <c r="EU1" t="n">
-        <v>0.1005070258732596</v>
-      </c>
-      <c r="EV1" t="n">
-        <v>0.1001571104865466</v>
-      </c>
-      <c r="EW1" t="n">
-        <v>0.09973769488465527</v>
-      </c>
-      <c r="EX1" t="n">
-        <v>0.09925442082466562</v>
-      </c>
-      <c r="EY1" t="n">
-        <v>0.0987206618364065</v>
-      </c>
-      <c r="EZ1" t="n">
-        <v>0.09815651253085539</v>
-      </c>
-      <c r="FA1" t="n">
-        <v>0.09759038557913512</v>
-      </c>
-      <c r="FB1" t="n">
-        <v>0.09703964875237153</v>
-      </c>
-      <c r="FC1" t="n">
-        <v>0.09653052199253732</v>
-      </c>
-      <c r="FD1" t="n">
-        <v>0.09607999736054675</v>
-      </c>
-      <c r="FE1" t="n">
-        <v>0.09568727361102906</v>
-      </c>
-      <c r="FF1" t="n">
-        <v>0.09534499643149988</v>
-      </c>
-      <c r="FG1" t="n">
-        <v>0.09494589643693711</v>
-      </c>
-      <c r="FH1" t="n">
-        <v>0.09450413064874828</v>
-      </c>
-      <c r="FI1" t="n">
-        <v>0.09404233442552697</v>
-      </c>
-      <c r="FJ1" t="n">
-        <v>0.09354763119228311</v>
-      </c>
-      <c r="FK1" t="n">
-        <v>0.09309197961893328</v>
-      </c>
-      <c r="FL1" t="n">
-        <v>0.09260734924318953</v>
-      </c>
-      <c r="FM1" t="n">
-        <v>0.09211943674837686</v>
-      </c>
-      <c r="FN1" t="n">
-        <v>0.09164499549707535</v>
-      </c>
-      <c r="FO1" t="n">
-        <v>0.0911933443189745</v>
-      </c>
-      <c r="FP1" t="n">
-        <v>0.09079184446208731</v>
-      </c>
-      <c r="FQ1" t="n">
-        <v>0.09039365762734139</v>
-      </c>
-      <c r="FR1" t="n">
-        <v>0.09005491237427085</v>
-      </c>
-      <c r="FS1" t="n">
-        <v>0.08978440590847254</v>
-      </c>
-      <c r="FT1" t="n">
-        <v>0.08945119415615331</v>
-      </c>
-      <c r="FU1" t="n">
-        <v>0.08906228090859417</v>
-      </c>
-      <c r="FV1" t="n">
-        <v>0.08863057509738358</v>
-      </c>
-      <c r="FW1" t="n">
-        <v>0.08817510553728217</v>
-      </c>
-      <c r="FX1" t="n">
-        <v>0.08771607658820867</v>
-      </c>
-      <c r="FY1" t="n">
-        <v>0.08726993818869311</v>
-      </c>
-      <c r="FZ1" t="n">
-        <v>0.08684768088649879</v>
-      </c>
-      <c r="GA1" t="n">
-        <v>0.08647512877590395</v>
-      </c>
-      <c r="GB1" t="n">
-        <v>0.08616032973783254</v>
-      </c>
-      <c r="GC1" t="n">
-        <v>0.08587470924243579</v>
-      </c>
-      <c r="GD1" t="n">
-        <v>0.08568082524615053</v>
-      </c>
-      <c r="GE1" t="n">
-        <v>0.08550525832052992</v>
-      </c>
-      <c r="GF1" t="n">
-        <v>0.0854155602459287</v>
-      </c>
-      <c r="GG1" t="n">
-        <v>0.08535475235611491</v>
-      </c>
-      <c r="GH1" t="n">
-        <v>0.08522237497508357</v>
-      </c>
-      <c r="GI1" t="n">
-        <v>0.08501508373747024</v>
-      </c>
-      <c r="GJ1" t="n">
-        <v>0.08473604791223709</v>
-      </c>
-      <c r="GK1" t="n">
-        <v>0.08439457286208128</v>
-      </c>
-      <c r="GL1" t="n">
-        <v>0.0840057761940545</v>
-      </c>
-      <c r="GM1" t="n">
-        <v>0.08359021973462274</v>
-      </c>
-      <c r="GN1" t="n">
-        <v>0.08317079341444392</v>
-      </c>
-      <c r="GO1" t="n">
-        <v>0.08277951137814155</v>
-      </c>
-      <c r="GP1" t="n">
-        <v>0.08245416985213209</v>
-      </c>
-      <c r="GQ1" t="n">
-        <v>0.0820725813266427</v>
-      </c>
-      <c r="GR1" t="n">
-        <v>0.08167003478151268</v>
-      </c>
-      <c r="GS1" t="n">
-        <v>0.08127606644194625</v>
+        <v>0.226279553664666</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error.xlsx
+++ b/Pruebas/Error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,307 +423,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.01442482362919442</v>
+        <v>0.00736452822097748</v>
       </c>
       <c r="B1" t="n">
-        <v>0.014185643328027</v>
+        <v>0.01133336095690548</v>
       </c>
       <c r="C1" t="n">
-        <v>0.01887180358856504</v>
+        <v>0.02644497713542677</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0261355622458436</v>
+        <v>0.04462770337193411</v>
       </c>
       <c r="E1" t="n">
-        <v>0.03139469063827512</v>
+        <v>0.06104738674740219</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03519430650419855</v>
+        <v>0.08842734969488635</v>
       </c>
       <c r="G1" t="n">
-        <v>0.03791300061794265</v>
+        <v>0.1324362846681387</v>
       </c>
       <c r="H1" t="n">
-        <v>0.04025692572377437</v>
+        <v>0.215131183742071</v>
       </c>
       <c r="I1" t="n">
-        <v>0.04219590839928855</v>
+        <v>0.2347199580169913</v>
       </c>
       <c r="J1" t="n">
-        <v>0.04386809979458706</v>
+        <v>0.2554125626628981</v>
       </c>
       <c r="K1" t="n">
-        <v>0.04554499761977235</v>
-      </c>
-      <c r="L1" t="n">
-        <v>0.04732730764289746</v>
-      </c>
-      <c r="M1" t="n">
-        <v>0.04737822657984223</v>
-      </c>
-      <c r="N1" t="n">
-        <v>0.04658769314142649</v>
-      </c>
-      <c r="O1" t="n">
-        <v>0.0453877757251638</v>
-      </c>
-      <c r="P1" t="n">
-        <v>0.04403955624705064</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>0.04270149464767533</v>
-      </c>
-      <c r="R1" t="n">
-        <v>0.04146683007042822</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0.04043067447824155</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0.03957260784204917</v>
-      </c>
-      <c r="U1" t="n">
-        <v>0.03890155745117837</v>
-      </c>
-      <c r="V1" t="n">
-        <v>0.03841077717415702</v>
-      </c>
-      <c r="W1" t="n">
-        <v>0.0380870321276118</v>
-      </c>
-      <c r="X1" t="n">
-        <v>0.03791320709079641</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>0.03792107250228544</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>0.03804267638487847</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>0.03819105486265103</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>0.0382400609066249</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>0.03827965805074071</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>0.03820407187333567</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>0.03804198976791572</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>0.03786052651984281</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>0.03759046760782634</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>0.0373379816106889</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>0.03706222515245764</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>0.03672866143024408</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>0.03638608981783903</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>0.03610827878047152</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>0.03588625380159489</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>0.03578178023613788</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>0.03581251861200213</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>0.03601509530836237</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>0.03643304656339913</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>0.03720528566076449</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>0.03757096650421046</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>0.03768660326682221</v>
-      </c>
-      <c r="AU1" t="n">
-        <v>0.03766503373214539</v>
-      </c>
-      <c r="AV1" t="n">
-        <v>0.03752382150646732</v>
-      </c>
-      <c r="AW1" t="n">
-        <v>0.03732740396051874</v>
-      </c>
-      <c r="AX1" t="n">
-        <v>0.03733710815663278</v>
-      </c>
-      <c r="AY1" t="n">
-        <v>0.0376263813629171</v>
-      </c>
-      <c r="AZ1" t="n">
-        <v>0.03822898927508918</v>
-      </c>
-      <c r="BA1" t="n">
-        <v>0.03894478189066493</v>
-      </c>
-      <c r="BB1" t="n">
-        <v>0.0394815701004962</v>
-      </c>
-      <c r="BC1" t="n">
-        <v>0.04029800791328143</v>
-      </c>
-      <c r="BD1" t="n">
-        <v>0.0409600363407604</v>
-      </c>
-      <c r="BE1" t="n">
-        <v>0.0419917903218485</v>
-      </c>
-      <c r="BF1" t="n">
-        <v>0.0435287474090741</v>
-      </c>
-      <c r="BG1" t="n">
-        <v>0.04512107012230419</v>
-      </c>
-      <c r="BH1" t="n">
-        <v>0.04689143077752584</v>
-      </c>
-      <c r="BI1" t="n">
-        <v>0.04937605948732988</v>
-      </c>
-      <c r="BJ1" t="n">
-        <v>0.05156269328000893</v>
-      </c>
-      <c r="BK1" t="n">
-        <v>0.05454855284077455</v>
-      </c>
-      <c r="BL1" t="n">
-        <v>0.0585051718188593</v>
-      </c>
-      <c r="BM1" t="n">
-        <v>0.06133361503768003</v>
-      </c>
-      <c r="BN1" t="n">
-        <v>0.06449137878201915</v>
-      </c>
-      <c r="BO1" t="n">
-        <v>0.06869479399478666</v>
-      </c>
-      <c r="BP1" t="n">
-        <v>0.0718358482146193</v>
-      </c>
-      <c r="BQ1" t="n">
-        <v>0.07387692649471737</v>
-      </c>
-      <c r="BR1" t="n">
-        <v>0.07534769791513567</v>
-      </c>
-      <c r="BS1" t="n">
-        <v>0.07635971789282689</v>
-      </c>
-      <c r="BT1" t="n">
-        <v>0.07712479835657858</v>
-      </c>
-      <c r="BU1" t="n">
-        <v>0.07815925880609796</v>
-      </c>
-      <c r="BV1" t="n">
-        <v>0.07956723178773033</v>
-      </c>
-      <c r="BW1" t="n">
-        <v>0.0814718743048341</v>
-      </c>
-      <c r="BX1" t="n">
-        <v>0.08398765344242017</v>
-      </c>
-      <c r="BY1" t="n">
-        <v>0.08724802308620314</v>
-      </c>
-      <c r="BZ1" t="n">
-        <v>0.09140144420687947</v>
-      </c>
-      <c r="CA1" t="n">
-        <v>0.09659093291532331</v>
-      </c>
-      <c r="CB1" t="n">
-        <v>0.1029613876752476</v>
-      </c>
-      <c r="CC1" t="n">
-        <v>0.1106541250017194</v>
-      </c>
-      <c r="CD1" t="n">
-        <v>0.1197908724895646</v>
-      </c>
-      <c r="CE1" t="n">
-        <v>0.1304570511164362</v>
-      </c>
-      <c r="CF1" t="n">
-        <v>0.1426547732844606</v>
-      </c>
-      <c r="CG1" t="n">
-        <v>0.1533621589637741</v>
-      </c>
-      <c r="CH1" t="n">
-        <v>0.156708553374545</v>
-      </c>
-      <c r="CI1" t="n">
-        <v>0.1602369872806705</v>
-      </c>
-      <c r="CJ1" t="n">
-        <v>0.1652511304429618</v>
-      </c>
-      <c r="CK1" t="n">
-        <v>0.169053248026253</v>
-      </c>
-      <c r="CL1" t="n">
-        <v>0.1718168744802681</v>
-      </c>
-      <c r="CM1" t="n">
-        <v>0.1742790214416338</v>
-      </c>
-      <c r="CN1" t="n">
-        <v>0.1756984316396075</v>
-      </c>
-      <c r="CO1" t="n">
-        <v>0.176322659300129</v>
-      </c>
-      <c r="CP1" t="n">
-        <v>0.1783859783805545</v>
-      </c>
-      <c r="CQ1" t="n">
-        <v>0.1794731091850063</v>
-      </c>
-      <c r="CR1" t="n">
-        <v>0.1971807818171137</v>
-      </c>
-      <c r="CS1" t="n">
-        <v>0.2201613053016496</v>
-      </c>
-      <c r="CT1" t="n">
-        <v>0.2206746791724675</v>
-      </c>
-      <c r="CU1" t="n">
-        <v>0.2218046165598631</v>
-      </c>
-      <c r="CV1" t="n">
-        <v>0.2237098811637408</v>
-      </c>
-      <c r="CW1" t="n">
-        <v>0.226279553664666</v>
+        <v>0.2694370027947697</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error.xlsx
+++ b/Pruebas/Error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:GS1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,34 +426,604 @@
         <v>0.00736452822097748</v>
       </c>
       <c r="B1" t="n">
-        <v>0.01133336095690548</v>
+        <v>0.01048871055883631</v>
       </c>
       <c r="C1" t="n">
-        <v>0.02644497713542677</v>
+        <v>0.01398383957346919</v>
       </c>
       <c r="D1" t="n">
-        <v>0.04462770337193411</v>
+        <v>0.01908641207103369</v>
       </c>
       <c r="E1" t="n">
-        <v>0.06104738674740219</v>
+        <v>0.02580923623359007</v>
       </c>
       <c r="F1" t="n">
-        <v>0.08842734969488635</v>
+        <v>0.03942968533813389</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1324362846681387</v>
+        <v>0.06179533487658428</v>
       </c>
       <c r="H1" t="n">
-        <v>0.215131183742071</v>
+        <v>0.1002963144927915</v>
       </c>
       <c r="I1" t="n">
-        <v>0.2347199580169913</v>
+        <v>0.1658238752443939</v>
       </c>
       <c r="J1" t="n">
-        <v>0.2554125626628981</v>
+        <v>0.3029127595502453</v>
       </c>
       <c r="K1" t="n">
-        <v>0.2694370027947697</v>
+        <v>0.6713444519266806</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1.132747854309903</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1.728131582075876</v>
+      </c>
+      <c r="N1" t="n">
+        <v>2.357114376771146</v>
+      </c>
+      <c r="O1" t="n">
+        <v>2.830060878199166</v>
+      </c>
+      <c r="P1" t="n">
+        <v>3.31235311550272</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>3.605646799064135</v>
+      </c>
+      <c r="R1" t="n">
+        <v>3.77925833117708</v>
+      </c>
+      <c r="S1" t="n">
+        <v>4.218686327776907</v>
+      </c>
+      <c r="T1" t="n">
+        <v>4.229365727011884</v>
+      </c>
+      <c r="U1" t="n">
+        <v>4.544068264620079</v>
+      </c>
+      <c r="V1" t="n">
+        <v>5.208651651912503</v>
+      </c>
+      <c r="W1" t="n">
+        <v>5.621386311635942</v>
+      </c>
+      <c r="X1" t="n">
+        <v>6.086122454515628</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>6.229744294212222</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>6.367943864960629</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>6.350043027583343</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>6.422825522326503</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>6.339698469808448</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>6.239686086211709</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>6.132308482531454</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>6.363223459975184</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>6.420305482199472</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>6.286069426399881</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>6.232832890109574</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>6.131423369125658</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>6.129990676486316</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>6.012325495144214</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>5.901259185844113</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>5.803601055835751</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>5.725039506165041</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>5.607648207271492</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>5.486206978733509</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>5.379615455743179</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>5.296570367863538</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>5.27015977600861</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>5.164517823427561</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>5.096178423963371</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>5.026288778663712</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>4.978173311470916</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>4.897114765034689</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>4.811687442652977</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>4.724665482502193</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>4.664877559479522</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>4.588690295950516</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>4.517849742463793</v>
+      </c>
+      <c r="BE1" t="n">
+        <v>4.484153186829495</v>
+      </c>
+      <c r="BF1" t="n">
+        <v>4.408591657344234</v>
+      </c>
+      <c r="BG1" t="n">
+        <v>4.376262153291038</v>
+      </c>
+      <c r="BH1" t="n">
+        <v>4.307915176022913</v>
+      </c>
+      <c r="BI1" t="n">
+        <v>4.242075609562303</v>
+      </c>
+      <c r="BJ1" t="n">
+        <v>4.177583467313815</v>
+      </c>
+      <c r="BK1" t="n">
+        <v>4.112656688643135</v>
+      </c>
+      <c r="BL1" t="n">
+        <v>4.052010367261891</v>
+      </c>
+      <c r="BM1" t="n">
+        <v>3.990317870195281</v>
+      </c>
+      <c r="BN1" t="n">
+        <v>3.930777689572108</v>
+      </c>
+      <c r="BO1" t="n">
+        <v>3.873010932083005</v>
+      </c>
+      <c r="BP1" t="n">
+        <v>3.818756543463393</v>
+      </c>
+      <c r="BQ1" t="n">
+        <v>3.766351329482084</v>
+      </c>
+      <c r="BR1" t="n">
+        <v>3.735970878716951</v>
+      </c>
+      <c r="BS1" t="n">
+        <v>3.684012473729955</v>
+      </c>
+      <c r="BT1" t="n">
+        <v>3.640975343484405</v>
+      </c>
+      <c r="BU1" t="n">
+        <v>3.591886966642331</v>
+      </c>
+      <c r="BV1" t="n">
+        <v>3.545751615129882</v>
+      </c>
+      <c r="BW1" t="n">
+        <v>3.500480234746697</v>
+      </c>
+      <c r="BX1" t="n">
+        <v>3.455096301222119</v>
+      </c>
+      <c r="BY1" t="n">
+        <v>3.412163729267137</v>
+      </c>
+      <c r="BZ1" t="n">
+        <v>3.370296300902943</v>
+      </c>
+      <c r="CA1" t="n">
+        <v>3.328271667669</v>
+      </c>
+      <c r="CB1" t="n">
+        <v>3.290333115412602</v>
+      </c>
+      <c r="CC1" t="n">
+        <v>3.250255506022129</v>
+      </c>
+      <c r="CD1" t="n">
+        <v>3.210761977382489</v>
+      </c>
+      <c r="CE1" t="n">
+        <v>3.17220844891743</v>
+      </c>
+      <c r="CF1" t="n">
+        <v>3.134756846620026</v>
+      </c>
+      <c r="CG1" t="n">
+        <v>3.097987840561137</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>3.062065876118357</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>3.027143748905284</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>2.993001203083201</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>2.96154708320639</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>2.929026493047554</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>2.90059469455637</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>2.869136799382736</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>2.839181232702839</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>2.809177324491194</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>2.779919569129269</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>2.75113492882218</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>2.722825732301188</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>2.695091369151507</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>2.668024329967201</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>2.641492094204897</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>2.615479179161766</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>2.589970676891527</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>2.564952229502776</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>2.540410005510572</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>2.516910225355434</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>2.493278832588949</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>2.471673857077191</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>2.448968622544263</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>2.427522482633818</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>2.406344846141164</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>2.385337617917963</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>2.364748810540941</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>2.344513088170498</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>2.323972061241519</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>2.303978783882118</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>2.284139845789039</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>2.264639117898126</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>2.245468055521443</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>2.226678541551388</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>2.208199517057664</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>2.190389935527973</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>2.172623754974548</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>2.154977415737001</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>2.137615076213295</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>2.120637436837796</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>2.103822240642933</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>2.087271329760838</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>2.070978536229622</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>2.054988604360379</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>2.039194009498078</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>2.023640136182076</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>2.008369635451455</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>1.993280744321695</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>1.978416703211843</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>1.963818179575057</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>1.949432623165913</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>1.935255448521573</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>1.921282198393039</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>1.907469580696636</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>1.893854013561477</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>1.880469852385986</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>1.867235749571537</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>1.854186501945982</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>1.841318267988593</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>1.828627311637337</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>1.81619911071747</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>1.804264121796703</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>1.802084929442159</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>1.789997355406927</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>1.778153676820388</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>1.766463080417135</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>1.755206282306106</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>1.74374058291377</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>1.732568194176094</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>1.721713283086682</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>1.710716725371177</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>1.700190422653983</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>1.689769310420774</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>1.679147276629664</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>1.6689364300877</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>1.65891146417241</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>1.648899690449407</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>1.638819685832239</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>1.629121873204303</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>1.619715937629819</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>1.61021486575186</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>1.600803273905329</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>1.591306002054575</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>1.58209621598128</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>1.572844500023776</v>
+      </c>
+      <c r="FO1" t="n">
+        <v>1.56365087322697</v>
+      </c>
+      <c r="FP1" t="n">
+        <v>1.554564057378068</v>
+      </c>
+      <c r="FQ1" t="n">
+        <v>1.545582203169568</v>
+      </c>
+      <c r="FR1" t="n">
+        <v>1.536703503685311</v>
+      </c>
+      <c r="FS1" t="n">
+        <v>1.527926193195586</v>
+      </c>
+      <c r="FT1" t="n">
+        <v>1.519295469213952</v>
+      </c>
+      <c r="FU1" t="n">
+        <v>1.51089313640663</v>
+      </c>
+      <c r="FV1" t="n">
+        <v>1.502453288501517</v>
+      </c>
+      <c r="FW1" t="n">
+        <v>1.494063217480902</v>
+      </c>
+      <c r="FX1" t="n">
+        <v>1.485766299669515</v>
+      </c>
+      <c r="FY1" t="n">
+        <v>1.477560993145757</v>
+      </c>
+      <c r="FZ1" t="n">
+        <v>1.469488009720832</v>
+      </c>
+      <c r="GA1" t="n">
+        <v>1.461620043641786</v>
+      </c>
+      <c r="GB1" t="n">
+        <v>1.453679591614115</v>
+      </c>
+      <c r="GC1" t="n">
+        <v>1.445824922845709</v>
+      </c>
+      <c r="GD1" t="n">
+        <v>1.43805465541152</v>
+      </c>
+      <c r="GE1" t="n">
+        <v>1.430391065537761</v>
+      </c>
+      <c r="GF1" t="n">
+        <v>1.422785459811349</v>
+      </c>
+      <c r="GG1" t="n">
+        <v>1.415260284353507</v>
+      </c>
+      <c r="GH1" t="n">
+        <v>1.407814270637198</v>
+      </c>
+      <c r="GI1" t="n">
+        <v>1.400446176650156</v>
+      </c>
+      <c r="GJ1" t="n">
+        <v>1.393154786206678</v>
+      </c>
+      <c r="GK1" t="n">
+        <v>1.385938908280696</v>
+      </c>
+      <c r="GL1" t="n">
+        <v>1.37879737635936</v>
+      </c>
+      <c r="GM1" t="n">
+        <v>1.371729047816399</v>
+      </c>
+      <c r="GN1" t="n">
+        <v>1.364732803304579</v>
+      </c>
+      <c r="GO1" t="n">
+        <v>1.357829464966894</v>
+      </c>
+      <c r="GP1" t="n">
+        <v>1.35097401968277</v>
+      </c>
+      <c r="GQ1" t="n">
+        <v>1.344187435030192</v>
+      </c>
+      <c r="GR1" t="n">
+        <v>1.337468679057788</v>
+      </c>
+      <c r="GS1" t="n">
+        <v>1.330816740318852</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error.xlsx
+++ b/Pruebas/Error.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GS1"/>
+  <dimension ref="A1:OK1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,604 +426,1204 @@
         <v>0.00736452822097748</v>
       </c>
       <c r="B1" t="n">
-        <v>0.01048871055883631</v>
+        <v>0.01133339678930827</v>
       </c>
       <c r="C1" t="n">
-        <v>0.01398383957346919</v>
+        <v>0.02644491925310912</v>
       </c>
       <c r="D1" t="n">
-        <v>0.01908641207103369</v>
+        <v>0.04200314905395996</v>
       </c>
       <c r="E1" t="n">
-        <v>0.02580923623359007</v>
+        <v>0.05910003590859934</v>
       </c>
       <c r="F1" t="n">
-        <v>0.03942968533813389</v>
+        <v>0.09409066743797083</v>
       </c>
       <c r="G1" t="n">
-        <v>0.06179533487658428</v>
+        <v>0.1504964777398392</v>
       </c>
       <c r="H1" t="n">
-        <v>0.1002963144927915</v>
+        <v>0.2361045521578847</v>
       </c>
       <c r="I1" t="n">
-        <v>0.1658238752443939</v>
+        <v>0.3027194812823823</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3029127595502453</v>
+        <v>0.4056286988622284</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6713444519266806</v>
+        <v>0.6775223712905233</v>
       </c>
       <c r="L1" t="n">
-        <v>1.132747854309903</v>
+        <v>0.9500002564668603</v>
       </c>
       <c r="M1" t="n">
-        <v>1.728131582075876</v>
+        <v>0.9543603997385038</v>
       </c>
       <c r="N1" t="n">
-        <v>2.357114376771146</v>
+        <v>1.106378592461035</v>
       </c>
       <c r="O1" t="n">
-        <v>2.830060878199166</v>
+        <v>1.307564047024443</v>
       </c>
       <c r="P1" t="n">
-        <v>3.31235311550272</v>
+        <v>1.252880586120687</v>
       </c>
       <c r="Q1" t="n">
-        <v>3.605646799064135</v>
+        <v>1.204160266783684</v>
       </c>
       <c r="R1" t="n">
-        <v>3.77925833117708</v>
+        <v>1.149757379584721</v>
       </c>
       <c r="S1" t="n">
-        <v>4.218686327776907</v>
+        <v>1.092176579557939</v>
       </c>
       <c r="T1" t="n">
-        <v>4.229365727011884</v>
+        <v>1.040277691571371</v>
       </c>
       <c r="U1" t="n">
-        <v>4.544068264620079</v>
+        <v>0.9915397132752553</v>
       </c>
       <c r="V1" t="n">
-        <v>5.208651651912503</v>
+        <v>0.9470922570140893</v>
       </c>
       <c r="W1" t="n">
-        <v>5.621386311635942</v>
+        <v>0.9063780859458784</v>
       </c>
       <c r="X1" t="n">
-        <v>6.086122454515628</v>
+        <v>0.870968329489792</v>
       </c>
       <c r="Y1" t="n">
-        <v>6.229744294212222</v>
+        <v>0.8403210375106341</v>
       </c>
       <c r="Z1" t="n">
-        <v>6.367943864960629</v>
+        <v>0.8097655454505991</v>
       </c>
       <c r="AA1" t="n">
-        <v>6.350043027583343</v>
+        <v>0.7949106662759483</v>
       </c>
       <c r="AB1" t="n">
-        <v>6.422825522326503</v>
+        <v>0.7900391281376399</v>
       </c>
       <c r="AC1" t="n">
-        <v>6.339698469808448</v>
+        <v>0.7660121121655811</v>
       </c>
       <c r="AD1" t="n">
-        <v>6.239686086211709</v>
+        <v>0.7568303781111231</v>
       </c>
       <c r="AE1" t="n">
-        <v>6.132308482531454</v>
+        <v>0.7401793764765736</v>
       </c>
       <c r="AF1" t="n">
-        <v>6.363223459975184</v>
+        <v>0.7270982486058767</v>
       </c>
       <c r="AG1" t="n">
-        <v>6.420305482199472</v>
+        <v>0.7095046607758904</v>
       </c>
       <c r="AH1" t="n">
-        <v>6.286069426399881</v>
+        <v>0.690782304209718</v>
       </c>
       <c r="AI1" t="n">
-        <v>6.232832890109574</v>
+        <v>0.6731527221262611</v>
       </c>
       <c r="AJ1" t="n">
-        <v>6.131423369125658</v>
+        <v>0.6551383206097929</v>
       </c>
       <c r="AK1" t="n">
-        <v>6.129990676486316</v>
+        <v>0.6376795373021455</v>
       </c>
       <c r="AL1" t="n">
-        <v>6.012325495144214</v>
+        <v>0.6209772363064046</v>
       </c>
       <c r="AM1" t="n">
-        <v>5.901259185844113</v>
+        <v>0.605211464978052</v>
       </c>
       <c r="AN1" t="n">
-        <v>5.803601055835751</v>
+        <v>0.5901881891254408</v>
       </c>
       <c r="AO1" t="n">
-        <v>5.725039506165041</v>
+        <v>0.5759249288735204</v>
       </c>
       <c r="AP1" t="n">
-        <v>5.607648207271492</v>
+        <v>0.5622381860144616</v>
       </c>
       <c r="AQ1" t="n">
-        <v>5.486206978733509</v>
+        <v>0.5491824764937413</v>
       </c>
       <c r="AR1" t="n">
-        <v>5.379615455743179</v>
+        <v>0.5367021840060932</v>
       </c>
       <c r="AS1" t="n">
-        <v>5.296570367863538</v>
+        <v>0.5248280865671628</v>
       </c>
       <c r="AT1" t="n">
-        <v>5.27015977600861</v>
+        <v>0.5135410490051375</v>
       </c>
       <c r="AU1" t="n">
-        <v>5.164517823427561</v>
+        <v>0.5026548343936517</v>
       </c>
       <c r="AV1" t="n">
-        <v>5.096178423963371</v>
+        <v>0.49255561865138</v>
       </c>
       <c r="AW1" t="n">
-        <v>5.026288778663712</v>
+        <v>0.4836355934457057</v>
       </c>
       <c r="AX1" t="n">
-        <v>4.978173311470916</v>
+        <v>0.5177442052500024</v>
       </c>
       <c r="AY1" t="n">
-        <v>4.897114765034689</v>
+        <v>0.5569120361293048</v>
       </c>
       <c r="AZ1" t="n">
-        <v>4.811687442652977</v>
+        <v>0.5513312150628235</v>
       </c>
       <c r="BA1" t="n">
-        <v>4.724665482502193</v>
+        <v>0.5671431092931576</v>
       </c>
       <c r="BB1" t="n">
-        <v>4.664877559479522</v>
+        <v>0.5590669001426402</v>
       </c>
       <c r="BC1" t="n">
-        <v>4.588690295950516</v>
+        <v>0.5505752687610331</v>
       </c>
       <c r="BD1" t="n">
-        <v>4.517849742463793</v>
+        <v>0.5413023519287898</v>
       </c>
       <c r="BE1" t="n">
-        <v>4.484153186829495</v>
+        <v>0.5321808027745164</v>
       </c>
       <c r="BF1" t="n">
-        <v>4.408591657344234</v>
+        <v>0.5231670433954748</v>
       </c>
       <c r="BG1" t="n">
-        <v>4.376262153291038</v>
+        <v>0.5144487574995403</v>
       </c>
       <c r="BH1" t="n">
-        <v>4.307915176022913</v>
+        <v>0.5059227821137167</v>
       </c>
       <c r="BI1" t="n">
-        <v>4.242075609562303</v>
+        <v>0.4976844733416922</v>
       </c>
       <c r="BJ1" t="n">
-        <v>4.177583467313815</v>
+        <v>0.4897200759819453</v>
       </c>
       <c r="BK1" t="n">
-        <v>4.112656688643135</v>
+        <v>0.48195553926003</v>
       </c>
       <c r="BL1" t="n">
-        <v>4.052010367261891</v>
+        <v>0.4744470357635133</v>
       </c>
       <c r="BM1" t="n">
-        <v>3.990317870195281</v>
+        <v>0.4671536659932917</v>
       </c>
       <c r="BN1" t="n">
-        <v>3.930777689572108</v>
+        <v>0.4600813893663243</v>
       </c>
       <c r="BO1" t="n">
-        <v>3.873010932083005</v>
+        <v>0.4532343545893096</v>
       </c>
       <c r="BP1" t="n">
-        <v>3.818756543463393</v>
+        <v>0.446589958830886</v>
       </c>
       <c r="BQ1" t="n">
-        <v>3.766351329482084</v>
+        <v>0.4401222875603659</v>
       </c>
       <c r="BR1" t="n">
-        <v>3.735970878716951</v>
+        <v>0.4339140239714604</v>
       </c>
       <c r="BS1" t="n">
-        <v>3.684012473729955</v>
+        <v>0.4278468666676379</v>
       </c>
       <c r="BT1" t="n">
-        <v>3.640975343484405</v>
+        <v>0.4222340311171387</v>
       </c>
       <c r="BU1" t="n">
-        <v>3.591886966642331</v>
+        <v>0.4167362616394515</v>
       </c>
       <c r="BV1" t="n">
-        <v>3.545751615129882</v>
+        <v>0.4158420484059229</v>
       </c>
       <c r="BW1" t="n">
-        <v>3.500480234746697</v>
+        <v>0.4150300320909989</v>
       </c>
       <c r="BX1" t="n">
-        <v>3.455096301222119</v>
+        <v>0.4123672360964112</v>
       </c>
       <c r="BY1" t="n">
-        <v>3.412163729267137</v>
+        <v>0.4238370391996912</v>
       </c>
       <c r="BZ1" t="n">
-        <v>3.370296300902943</v>
+        <v>0.4274680337707394</v>
       </c>
       <c r="CA1" t="n">
-        <v>3.328271667669</v>
+        <v>0.4225827223501594</v>
       </c>
       <c r="CB1" t="n">
-        <v>3.290333115412602</v>
+        <v>0.4183952281158032</v>
       </c>
       <c r="CC1" t="n">
-        <v>3.250255506022129</v>
+        <v>0.413529337048338</v>
       </c>
       <c r="CD1" t="n">
-        <v>3.210761977382489</v>
+        <v>0.4087174848630737</v>
       </c>
       <c r="CE1" t="n">
-        <v>3.17220844891743</v>
+        <v>0.4039409840796268</v>
       </c>
       <c r="CF1" t="n">
-        <v>3.134756846620026</v>
+        <v>0.3992549187520016</v>
       </c>
       <c r="CG1" t="n">
-        <v>3.097987840561137</v>
+        <v>0.3946788465484103</v>
       </c>
       <c r="CH1" t="n">
-        <v>3.062065876118357</v>
+        <v>0.3901572450052149</v>
       </c>
       <c r="CI1" t="n">
-        <v>3.027143748905284</v>
+        <v>0.3857153781779169</v>
       </c>
       <c r="CJ1" t="n">
-        <v>2.993001203083201</v>
+        <v>0.3813358371277734</v>
       </c>
       <c r="CK1" t="n">
-        <v>2.96154708320639</v>
+        <v>0.3770601162939832</v>
       </c>
       <c r="CL1" t="n">
-        <v>2.929026493047554</v>
+        <v>0.3728752756801675</v>
       </c>
       <c r="CM1" t="n">
-        <v>2.90059469455637</v>
+        <v>0.3687779938177347</v>
       </c>
       <c r="CN1" t="n">
-        <v>2.869136799382736</v>
+        <v>0.3647711646417456</v>
       </c>
       <c r="CO1" t="n">
-        <v>2.839181232702839</v>
+        <v>0.3608531737513047</v>
       </c>
       <c r="CP1" t="n">
-        <v>2.809177324491194</v>
+        <v>0.3570192826437089</v>
       </c>
       <c r="CQ1" t="n">
-        <v>2.779919569129269</v>
+        <v>0.3533001147741933</v>
       </c>
       <c r="CR1" t="n">
-        <v>2.75113492882218</v>
+        <v>0.3497125395735816</v>
       </c>
       <c r="CS1" t="n">
-        <v>2.722825732301188</v>
+        <v>0.3461126347672477</v>
       </c>
       <c r="CT1" t="n">
-        <v>2.695091369151507</v>
+        <v>0.3427410519107748</v>
       </c>
       <c r="CU1" t="n">
-        <v>2.668024329967201</v>
+        <v>0.3396540747592449</v>
       </c>
       <c r="CV1" t="n">
-        <v>2.641492094204897</v>
+        <v>0.3424475034965881</v>
       </c>
       <c r="CW1" t="n">
-        <v>2.615479179161766</v>
+        <v>0.3427296902065683</v>
       </c>
       <c r="CX1" t="n">
-        <v>2.589970676891527</v>
+        <v>0.3494626231068474</v>
       </c>
       <c r="CY1" t="n">
-        <v>2.564952229502776</v>
+        <v>0.3469697923863665</v>
       </c>
       <c r="CZ1" t="n">
-        <v>2.540410005510572</v>
+        <v>0.3461108240032502</v>
       </c>
       <c r="DA1" t="n">
-        <v>2.516910225355434</v>
+        <v>0.3432270817143274</v>
       </c>
       <c r="DB1" t="n">
-        <v>2.493278832588949</v>
+        <v>0.3402638055018148</v>
       </c>
       <c r="DC1" t="n">
-        <v>2.471673857077191</v>
+        <v>0.3372850418350345</v>
       </c>
       <c r="DD1" t="n">
-        <v>2.448968622544263</v>
+        <v>0.3343845892237561</v>
       </c>
       <c r="DE1" t="n">
-        <v>2.427522482633818</v>
+        <v>0.3314025055853677</v>
       </c>
       <c r="DF1" t="n">
-        <v>2.406344846141164</v>
+        <v>0.3284436199423517</v>
       </c>
       <c r="DG1" t="n">
-        <v>2.385337617917963</v>
+        <v>0.3254939101697101</v>
       </c>
       <c r="DH1" t="n">
-        <v>2.364748810540941</v>
+        <v>0.3226233271957432</v>
       </c>
       <c r="DI1" t="n">
-        <v>2.344513088170498</v>
+        <v>0.3197798812591406</v>
       </c>
       <c r="DJ1" t="n">
-        <v>2.323972061241519</v>
+        <v>0.3169848552316659</v>
       </c>
       <c r="DK1" t="n">
-        <v>2.303978783882118</v>
+        <v>0.3142371220808596</v>
       </c>
       <c r="DL1" t="n">
-        <v>2.284139845789039</v>
+        <v>0.3115505364746943</v>
       </c>
       <c r="DM1" t="n">
-        <v>2.264639117898126</v>
+        <v>0.308889295160103</v>
       </c>
       <c r="DN1" t="n">
-        <v>2.245468055521443</v>
+        <v>0.3062829982806144</v>
       </c>
       <c r="DO1" t="n">
-        <v>2.226678541551388</v>
+        <v>0.3037098643241143</v>
       </c>
       <c r="DP1" t="n">
-        <v>2.208199517057664</v>
+        <v>0.3011796734926246</v>
       </c>
       <c r="DQ1" t="n">
-        <v>2.190389935527973</v>
+        <v>0.2986921268516389</v>
       </c>
       <c r="DR1" t="n">
-        <v>2.172623754974548</v>
+        <v>0.296246280337007</v>
       </c>
       <c r="DS1" t="n">
-        <v>2.154977415737001</v>
+        <v>0.2938391320340161</v>
       </c>
       <c r="DT1" t="n">
-        <v>2.137615076213295</v>
+        <v>0.2914700968258094</v>
       </c>
       <c r="DU1" t="n">
-        <v>2.120637436837796</v>
+        <v>0.289150726291138</v>
       </c>
       <c r="DV1" t="n">
-        <v>2.103822240642933</v>
+        <v>0.2868621618004886</v>
       </c>
       <c r="DW1" t="n">
-        <v>2.087271329760838</v>
+        <v>0.2846123101506298</v>
       </c>
       <c r="DX1" t="n">
-        <v>2.070978536229622</v>
+        <v>0.2823943983277631</v>
       </c>
       <c r="DY1" t="n">
-        <v>2.054988604360379</v>
+        <v>0.2802062233610203</v>
       </c>
       <c r="DZ1" t="n">
-        <v>2.039194009498078</v>
+        <v>0.2780525521179342</v>
       </c>
       <c r="EA1" t="n">
-        <v>2.023640136182076</v>
+        <v>0.2759314116364489</v>
       </c>
       <c r="EB1" t="n">
-        <v>2.008369635451455</v>
+        <v>0.2738462999111901</v>
       </c>
       <c r="EC1" t="n">
-        <v>1.993280744321695</v>
+        <v>0.2717923484185956</v>
       </c>
       <c r="ED1" t="n">
-        <v>1.978416703211843</v>
+        <v>0.2697645684830317</v>
       </c>
       <c r="EE1" t="n">
-        <v>1.963818179575057</v>
+        <v>0.2678175719328104</v>
       </c>
       <c r="EF1" t="n">
-        <v>1.949432623165913</v>
+        <v>0.2659980269604412</v>
       </c>
       <c r="EG1" t="n">
-        <v>1.935255448521573</v>
+        <v>0.2643827925129426</v>
       </c>
       <c r="EH1" t="n">
-        <v>1.921282198393039</v>
+        <v>0.2685001753661085</v>
       </c>
       <c r="EI1" t="n">
-        <v>1.907469580696636</v>
+        <v>0.269517294600735</v>
       </c>
       <c r="EJ1" t="n">
-        <v>1.893854013561477</v>
+        <v>0.2679264502001293</v>
       </c>
       <c r="EK1" t="n">
-        <v>1.880469852385986</v>
+        <v>0.2663376615761306</v>
       </c>
       <c r="EL1" t="n">
-        <v>1.867235749571537</v>
+        <v>0.2663830804812207</v>
       </c>
       <c r="EM1" t="n">
-        <v>1.854186501945982</v>
+        <v>0.2747624223760021</v>
       </c>
       <c r="EN1" t="n">
-        <v>1.841318267988593</v>
+        <v>0.2744051936107167</v>
       </c>
       <c r="EO1" t="n">
-        <v>1.828627311637337</v>
+        <v>0.2727836747484721</v>
       </c>
       <c r="EP1" t="n">
-        <v>1.81619911071747</v>
+        <v>0.2709476561203631</v>
       </c>
       <c r="EQ1" t="n">
-        <v>1.804264121796703</v>
+        <v>0.2691748646928908</v>
       </c>
       <c r="ER1" t="n">
-        <v>1.802084929442159</v>
+        <v>0.2673910914163758</v>
       </c>
       <c r="ES1" t="n">
-        <v>1.789997355406927</v>
+        <v>0.2656271604040787</v>
       </c>
       <c r="ET1" t="n">
-        <v>1.778153676820388</v>
+        <v>0.2638730557901975</v>
       </c>
       <c r="EU1" t="n">
-        <v>1.766463080417135</v>
+        <v>0.2621325707616548</v>
       </c>
       <c r="EV1" t="n">
-        <v>1.755206282306106</v>
+        <v>0.2604122630133241</v>
       </c>
       <c r="EW1" t="n">
-        <v>1.74374058291377</v>
+        <v>0.2587144074433435</v>
       </c>
       <c r="EX1" t="n">
-        <v>1.732568194176094</v>
+        <v>0.2570411150565467</v>
       </c>
       <c r="EY1" t="n">
-        <v>1.721713283086682</v>
+        <v>0.2553883815972854</v>
       </c>
       <c r="EZ1" t="n">
-        <v>1.710716725371177</v>
+        <v>0.2537521493617576</v>
       </c>
       <c r="FA1" t="n">
-        <v>1.700190422653983</v>
+        <v>0.2521376596324849</v>
       </c>
       <c r="FB1" t="n">
-        <v>1.689769310420774</v>
+        <v>0.250545537884544</v>
       </c>
       <c r="FC1" t="n">
-        <v>1.679147276629664</v>
+        <v>0.248977507020964</v>
       </c>
       <c r="FD1" t="n">
-        <v>1.6689364300877</v>
+        <v>0.2474480465360609</v>
       </c>
       <c r="FE1" t="n">
-        <v>1.65891146417241</v>
+        <v>0.245952640332048</v>
       </c>
       <c r="FF1" t="n">
-        <v>1.648899690449407</v>
+        <v>0.2444533224664887</v>
       </c>
       <c r="FG1" t="n">
-        <v>1.638819685832239</v>
+        <v>0.2429958857673818</v>
       </c>
       <c r="FH1" t="n">
-        <v>1.629121873204303</v>
+        <v>0.2415932227786382</v>
       </c>
       <c r="FI1" t="n">
-        <v>1.619715937629819</v>
+        <v>0.2402836356773065</v>
       </c>
       <c r="FJ1" t="n">
-        <v>1.61021486575186</v>
+        <v>0.2391575216287267</v>
       </c>
       <c r="FK1" t="n">
-        <v>1.600803273905329</v>
+        <v>0.2404951116607338</v>
       </c>
       <c r="FL1" t="n">
-        <v>1.591306002054575</v>
+        <v>0.2392010819441215</v>
       </c>
       <c r="FM1" t="n">
-        <v>1.58209621598128</v>
+        <v>0.2389776120022016</v>
       </c>
       <c r="FN1" t="n">
-        <v>1.572844500023776</v>
+        <v>0.2382989147338986</v>
       </c>
       <c r="FO1" t="n">
-        <v>1.56365087322697</v>
+        <v>0.2370378571346754</v>
       </c>
       <c r="FP1" t="n">
-        <v>1.554564057378068</v>
+        <v>0.2361808643621721</v>
       </c>
       <c r="FQ1" t="n">
-        <v>1.545582203169568</v>
+        <v>0.2348594168219675</v>
       </c>
       <c r="FR1" t="n">
-        <v>1.536703503685311</v>
+        <v>0.2335804320062458</v>
       </c>
       <c r="FS1" t="n">
-        <v>1.527926193195586</v>
+        <v>0.2322811186885778</v>
       </c>
       <c r="FT1" t="n">
-        <v>1.519295469213952</v>
+        <v>0.2309939789841659</v>
       </c>
       <c r="FU1" t="n">
-        <v>1.51089313640663</v>
+        <v>0.2297007061000958</v>
       </c>
       <c r="FV1" t="n">
-        <v>1.502453288501517</v>
+        <v>0.2284147468381655</v>
       </c>
       <c r="FW1" t="n">
-        <v>1.494063217480902</v>
+        <v>0.2271417987676854</v>
       </c>
       <c r="FX1" t="n">
-        <v>1.485766299669515</v>
+        <v>0.2258802187846075</v>
       </c>
       <c r="FY1" t="n">
-        <v>1.477560993145757</v>
+        <v>0.2246338129154919</v>
       </c>
       <c r="FZ1" t="n">
-        <v>1.469488009720832</v>
+        <v>0.2234003269327633</v>
       </c>
       <c r="GA1" t="n">
-        <v>1.461620043641786</v>
+        <v>0.2221799845961468</v>
       </c>
       <c r="GB1" t="n">
-        <v>1.453679591614115</v>
+        <v>0.220974316657334</v>
       </c>
       <c r="GC1" t="n">
-        <v>1.445824922845709</v>
+        <v>0.2197825615455398</v>
       </c>
       <c r="GD1" t="n">
-        <v>1.43805465541152</v>
+        <v>0.2186012991876115</v>
       </c>
       <c r="GE1" t="n">
-        <v>1.430391065537761</v>
+        <v>0.2174324159215047</v>
       </c>
       <c r="GF1" t="n">
-        <v>1.422785459811349</v>
+        <v>0.216276014025713</v>
       </c>
       <c r="GG1" t="n">
-        <v>1.415260284353507</v>
+        <v>0.2151318581868174</v>
       </c>
       <c r="GH1" t="n">
-        <v>1.407814270637198</v>
+        <v>0.2140001883048469</v>
       </c>
       <c r="GI1" t="n">
-        <v>1.400446176650156</v>
+        <v>0.2128816935314804</v>
       </c>
       <c r="GJ1" t="n">
-        <v>1.393154786206678</v>
+        <v>0.2117731632305957</v>
       </c>
       <c r="GK1" t="n">
-        <v>1.385938908280696</v>
+        <v>0.2106760236542701</v>
       </c>
       <c r="GL1" t="n">
-        <v>1.37879737635936</v>
+        <v>0.2095902200713933</v>
       </c>
       <c r="GM1" t="n">
-        <v>1.371729047816399</v>
+        <v>0.2085154771923541</v>
       </c>
       <c r="GN1" t="n">
-        <v>1.364732803304579</v>
+        <v>0.2074518245965474</v>
       </c>
       <c r="GO1" t="n">
-        <v>1.357829464966894</v>
+        <v>0.2063998423106358</v>
       </c>
       <c r="GP1" t="n">
-        <v>1.35097401968277</v>
+        <v>0.2053575350666342</v>
       </c>
       <c r="GQ1" t="n">
-        <v>1.344187435030192</v>
+        <v>0.2043256924115584</v>
       </c>
       <c r="GR1" t="n">
-        <v>1.337468679057788</v>
+        <v>0.2033042378262267</v>
       </c>
       <c r="GS1" t="n">
-        <v>1.330816740318852</v>
+        <v>0.202292805531655</v>
+      </c>
+      <c r="GT1" t="n">
+        <v>0.201291789833924</v>
+      </c>
+      <c r="GU1" t="n">
+        <v>0.2003003623313231</v>
+      </c>
+      <c r="GV1" t="n">
+        <v>0.199318575476898</v>
+      </c>
+      <c r="GW1" t="n">
+        <v>0.1983463402119959</v>
+      </c>
+      <c r="GX1" t="n">
+        <v>0.197383572587637</v>
+      </c>
+      <c r="GY1" t="n">
+        <v>0.1964301026121568</v>
+      </c>
+      <c r="GZ1" t="n">
+        <v>0.1954858439020367</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>0.1945506451963199</v>
+      </c>
+      <c r="HB1" t="n">
+        <v>0.1936243022826623</v>
+      </c>
+      <c r="HC1" t="n">
+        <v>0.1927069205929257</v>
+      </c>
+      <c r="HD1" t="n">
+        <v>0.1917980369927735</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>0.1908978369233899</v>
+      </c>
+      <c r="HF1" t="n">
+        <v>0.1900081328014505</v>
+      </c>
+      <c r="HG1" t="n">
+        <v>0.1891244209437082</v>
+      </c>
+      <c r="HH1" t="n">
+        <v>0.1882613237229136</v>
+      </c>
+      <c r="HI1" t="n">
+        <v>0.1873988669669562</v>
+      </c>
+      <c r="HJ1" t="n">
+        <v>0.1865412713391241</v>
+      </c>
+      <c r="HK1" t="n">
+        <v>0.1856895684733147</v>
+      </c>
+      <c r="HL1" t="n">
+        <v>0.1848474587292155</v>
+      </c>
+      <c r="HM1" t="n">
+        <v>0.1840110824198876</v>
+      </c>
+      <c r="HN1" t="n">
+        <v>0.1831827895100892</v>
+      </c>
+      <c r="HO1" t="n">
+        <v>0.1823640700991376</v>
+      </c>
+      <c r="HP1" t="n">
+        <v>0.1815500204653371</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>0.180743213587015</v>
+      </c>
+      <c r="HR1" t="n">
+        <v>0.1799435209437128</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>0.1791509217192067</v>
+      </c>
+      <c r="HT1" t="n">
+        <v>0.1783652829498949</v>
+      </c>
+      <c r="HU1" t="n">
+        <v>0.1775866090920347</v>
+      </c>
+      <c r="HV1" t="n">
+        <v>0.1768145733614284</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>0.1760492040237647</v>
+      </c>
+      <c r="HX1" t="n">
+        <v>0.1752904935397195</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>0.1745385270302771</v>
+      </c>
+      <c r="HZ1" t="n">
+        <v>0.1737928404611818</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>0.1730533465754905</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>0.1723202618839909</v>
+      </c>
+      <c r="IC1" t="n">
+        <v>0.1715932405060145</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>0.1708723132901346</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>0.1701574846700356</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>0.169448514492176</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>0.1687455334984377</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>0.1680482915425048</v>
+      </c>
+      <c r="II1" t="n">
+        <v>0.1673568448611896</v>
+      </c>
+      <c r="IJ1" t="n">
+        <v>0.166671507521223</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>0.1659914090430261</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>0.1653172922717848</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>0.1646480391057412</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>0.1639841963867045</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>0.1633257805488713</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>0.1626725291500596</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>0.1620245274420545</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>0.1613822087181513</v>
+      </c>
+      <c r="IS1" t="n">
+        <v>0.1607445391092138</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>0.1601121699831107</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>0.1594843451196004</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>0.158862248611136</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>0.1582460379989789</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>0.1576328507958236</v>
+      </c>
+      <c r="IY1" t="n">
+        <v>0.1570242720131899</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>0.1564203836440017</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>0.1558210784097567</v>
+      </c>
+      <c r="JB1" t="n">
+        <v>0.155226395016349</v>
+      </c>
+      <c r="JC1" t="n">
+        <v>0.1546364903573137</v>
+      </c>
+      <c r="JD1" t="n">
+        <v>0.1540507958145368</v>
+      </c>
+      <c r="JE1" t="n">
+        <v>0.1534698597090012</v>
+      </c>
+      <c r="JF1" t="n">
+        <v>0.1528929498751178</v>
+      </c>
+      <c r="JG1" t="n">
+        <v>0.1523203828529376</v>
+      </c>
+      <c r="JH1" t="n">
+        <v>0.151752061817052</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>0.1511882150867818</v>
+      </c>
+      <c r="JJ1" t="n">
+        <v>0.1506283757151565</v>
+      </c>
+      <c r="JK1" t="n">
+        <v>0.1500728610112632</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>0.1495211740812217</v>
+      </c>
+      <c r="JM1" t="n">
+        <v>0.1489735127843439</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>0.1484308681984262</v>
+      </c>
+      <c r="JO1" t="n">
+        <v>0.1478911646694226</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>0.1473563543684862</v>
+      </c>
+      <c r="JQ1" t="n">
+        <v>0.1468244093831943</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>0.1462963078144758</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>0.1457719652044517</v>
+      </c>
+      <c r="JT1" t="n">
+        <v>0.1452513729528497</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>0.144734491067653</v>
+      </c>
+      <c r="JV1" t="n">
+        <v>0.1442212682573679</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>0.1437116760980831</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>0.1432056853595536</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>0.1427032415092466</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>0.1422043812870254</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>0.1417094332489615</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>0.1412174872483645</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>0.1407288586247878</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>0.1402439709905706</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>0.1397620940003697</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>0.1392835226615102</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>0.1388081960064563</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>0.1383361195590431</v>
+      </c>
+      <c r="KI1" t="n">
+        <v>0.1378672038354324</v>
+      </c>
+      <c r="KJ1" t="n">
+        <v>0.1374014834419086</v>
+      </c>
+      <c r="KK1" t="n">
+        <v>0.136938876255635</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>0.1364796014049744</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>0.136023166086625</v>
+      </c>
+      <c r="KN1" t="n">
+        <v>0.1355698393318493</v>
+      </c>
+      <c r="KO1" t="n">
+        <v>0.1351194712021895</v>
+      </c>
+      <c r="KP1" t="n">
+        <v>0.1346721559790487</v>
+      </c>
+      <c r="KQ1" t="n">
+        <v>0.1342282614055771</v>
+      </c>
+      <c r="KR1" t="n">
+        <v>0.1337869841529937</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>0.1333483561735216</v>
+      </c>
+      <c r="KT1" t="n">
+        <v>0.132912631893807</v>
+      </c>
+      <c r="KU1" t="n">
+        <v>0.1324797480915252</v>
+      </c>
+      <c r="KV1" t="n">
+        <v>0.132049778086449</v>
+      </c>
+      <c r="KW1" t="n">
+        <v>0.1316226246856144</v>
+      </c>
+      <c r="KX1" t="n">
+        <v>0.131198446614903</v>
+      </c>
+      <c r="KY1" t="n">
+        <v>0.1307767668686778</v>
+      </c>
+      <c r="KZ1" t="n">
+        <v>0.1303576730449486</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>0.1299412051493159</v>
+      </c>
+      <c r="LB1" t="n">
+        <v>0.1295275055950776</v>
+      </c>
+      <c r="LC1" t="n">
+        <v>0.1291163110061434</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>0.1287078228497174</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>0.1283018100995595</v>
+      </c>
+      <c r="LF1" t="n">
+        <v>0.1278983803048793</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>0.1274974503839326</v>
+      </c>
+      <c r="LH1" t="n">
+        <v>0.1270990566785819</v>
+      </c>
+      <c r="LI1" t="n">
+        <v>0.1267031173184942</v>
+      </c>
+      <c r="LJ1" t="n">
+        <v>0.1263096453415036</v>
+      </c>
+      <c r="LK1" t="n">
+        <v>0.1259185970916077</v>
+      </c>
+      <c r="LL1" t="n">
+        <v>0.1255299874401311</v>
+      </c>
+      <c r="LM1" t="n">
+        <v>0.1251437597368227</v>
+      </c>
+      <c r="LN1" t="n">
+        <v>0.1247598942729135</v>
+      </c>
+      <c r="LO1" t="n">
+        <v>0.1243783926013271</v>
+      </c>
+      <c r="LP1" t="n">
+        <v>0.1239992266243741</v>
+      </c>
+      <c r="LQ1" t="n">
+        <v>0.1236223436036181</v>
+      </c>
+      <c r="LR1" t="n">
+        <v>0.1232477508886208</v>
+      </c>
+      <c r="LS1" t="n">
+        <v>0.1228754177069757</v>
+      </c>
+      <c r="LT1" t="n">
+        <v>0.1225060657611497</v>
+      </c>
+      <c r="LU1" t="n">
+        <v>0.1221382783879159</v>
+      </c>
+      <c r="LV1" t="n">
+        <v>0.1217726463379887</v>
+      </c>
+      <c r="LW1" t="n">
+        <v>0.1214091647428124</v>
+      </c>
+      <c r="LX1" t="n">
+        <v>0.1210480203158013</v>
+      </c>
+      <c r="LY1" t="n">
+        <v>0.120688837668802</v>
+      </c>
+      <c r="LZ1" t="n">
+        <v>0.1203317970380505</v>
+      </c>
+      <c r="MA1" t="n">
+        <v>0.1199768444338633</v>
+      </c>
+      <c r="MB1" t="n">
+        <v>0.1196241634117195</v>
+      </c>
+      <c r="MC1" t="n">
+        <v>0.119273411649405</v>
+      </c>
+      <c r="MD1" t="n">
+        <v>0.1189247141849791</v>
+      </c>
+      <c r="ME1" t="n">
+        <v>0.1185780579863643</v>
+      </c>
+      <c r="MF1" t="n">
+        <v>0.1182333917704606</v>
+      </c>
+      <c r="MG1" t="n">
+        <v>0.1178906946317727</v>
+      </c>
+      <c r="MH1" t="n">
+        <v>0.1175500341695908</v>
+      </c>
+      <c r="MI1" t="n">
+        <v>0.117211289229802</v>
+      </c>
+      <c r="MJ1" t="n">
+        <v>0.1168744925319478</v>
+      </c>
+      <c r="MK1" t="n">
+        <v>0.1165396530523992</v>
+      </c>
+      <c r="ML1" t="n">
+        <v>0.1162068787891151</v>
+      </c>
+      <c r="MM1" t="n">
+        <v>0.115876693465409</v>
+      </c>
+      <c r="MN1" t="n">
+        <v>0.1155510778602423</v>
+      </c>
+      <c r="MO1" t="n">
+        <v>0.115223837538613</v>
+      </c>
+      <c r="MP1" t="n">
+        <v>0.1148983771459934</v>
+      </c>
+      <c r="MQ1" t="n">
+        <v>0.1145747459091626</v>
+      </c>
+      <c r="MR1" t="n">
+        <v>0.1142529167431197</v>
+      </c>
+      <c r="MS1" t="n">
+        <v>0.113932904489015</v>
+      </c>
+      <c r="MT1" t="n">
+        <v>0.113614677270385</v>
+      </c>
+      <c r="MU1" t="n">
+        <v>0.1132982193864406</v>
+      </c>
+      <c r="MV1" t="n">
+        <v>0.1129835326134643</v>
+      </c>
+      <c r="MW1" t="n">
+        <v>0.112670583566356</v>
+      </c>
+      <c r="MX1" t="n">
+        <v>0.1123593587406366</v>
+      </c>
+      <c r="MY1" t="n">
+        <v>0.1120498376169116</v>
+      </c>
+      <c r="MZ1" t="n">
+        <v>0.1117420175075905</v>
+      </c>
+      <c r="NA1" t="n">
+        <v>0.1114359293870726</v>
+      </c>
+      <c r="NB1" t="n">
+        <v>0.1111314817457774</v>
+      </c>
+      <c r="NC1" t="n">
+        <v>0.1108286752327963</v>
+      </c>
+      <c r="ND1" t="n">
+        <v>0.110527518773386</v>
+      </c>
+      <c r="NE1" t="n">
+        <v>0.1102279934517768</v>
+      </c>
+      <c r="NF1" t="n">
+        <v>0.1099300960365421</v>
+      </c>
+      <c r="NG1" t="n">
+        <v>0.1096340952293199</v>
+      </c>
+      <c r="NH1" t="n">
+        <v>0.109339400035251</v>
+      </c>
+      <c r="NI1" t="n">
+        <v>0.109046316991363</v>
+      </c>
+      <c r="NJ1" t="n">
+        <v>0.108754793252353</v>
+      </c>
+      <c r="NK1" t="n">
+        <v>0.1084647951151496</v>
+      </c>
+      <c r="NL1" t="n">
+        <v>0.1081763493171198</v>
+      </c>
+      <c r="NM1" t="n">
+        <v>0.1078912577242652</v>
+      </c>
+      <c r="NN1" t="n">
+        <v>0.1076066565639388</v>
+      </c>
+      <c r="NO1" t="n">
+        <v>0.1073228303257629</v>
+      </c>
+      <c r="NP1" t="n">
+        <v>0.1070406645730938</v>
+      </c>
+      <c r="NQ1" t="n">
+        <v>0.1067599667889012</v>
+      </c>
+      <c r="NR1" t="n">
+        <v>0.1064809367316688</v>
+      </c>
+      <c r="NS1" t="n">
+        <v>0.1062029562076274</v>
+      </c>
+      <c r="NT1" t="n">
+        <v>0.1059265459435716</v>
+      </c>
+      <c r="NU1" t="n">
+        <v>0.1056514859017216</v>
+      </c>
+      <c r="NV1" t="n">
+        <v>0.1053780508646474</v>
+      </c>
+      <c r="NW1" t="n">
+        <v>0.1051060041951548</v>
+      </c>
+      <c r="NX1" t="n">
+        <v>0.1048351572668758</v>
+      </c>
+      <c r="NY1" t="n">
+        <v>0.1045656677651847</v>
+      </c>
+      <c r="NZ1" t="n">
+        <v>0.1042977662031147</v>
+      </c>
+      <c r="OA1" t="n">
+        <v>0.104031050187375</v>
+      </c>
+      <c r="OB1" t="n">
+        <v>0.1037661225919005</v>
+      </c>
+      <c r="OC1" t="n">
+        <v>0.1035021014887863</v>
+      </c>
+      <c r="OD1" t="n">
+        <v>0.1032412623096798</v>
+      </c>
+      <c r="OE1" t="n">
+        <v>0.1029799056173459</v>
+      </c>
+      <c r="OF1" t="n">
+        <v>0.1027201456537602</v>
+      </c>
+      <c r="OG1" t="n">
+        <v>0.1024618516150895</v>
+      </c>
+      <c r="OH1" t="n">
+        <v>0.1022048050330945</v>
+      </c>
+      <c r="OI1" t="n">
+        <v>0.1019505771471082</v>
+      </c>
+      <c r="OJ1" t="n">
+        <v>0.1016963469692561</v>
+      </c>
+      <c r="OK1" t="n">
+        <v>0.1014444036452718</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error.xlsx
+++ b/Pruebas/Error.xlsx
@@ -423,1207 +423,1207 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.00736452822097748</v>
+        <v>0.02030873385717601</v>
       </c>
       <c r="B1" t="n">
-        <v>0.01133339678930827</v>
+        <v>0.04230530257046625</v>
       </c>
       <c r="C1" t="n">
-        <v>0.02644491925310912</v>
+        <v>0.05516070310665604</v>
       </c>
       <c r="D1" t="n">
-        <v>0.04200314905395996</v>
+        <v>0.06621194063773583</v>
       </c>
       <c r="E1" t="n">
-        <v>0.05910003590859934</v>
+        <v>0.07325689479219059</v>
       </c>
       <c r="F1" t="n">
-        <v>0.09409066743797083</v>
+        <v>0.07874183149827876</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1504964777398392</v>
+        <v>0.08158916519364688</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2361045521578847</v>
+        <v>0.0881343693195845</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3027194812823823</v>
+        <v>0.09647878117448455</v>
       </c>
       <c r="J1" t="n">
-        <v>0.4056286988622284</v>
+        <v>0.1106638300592657</v>
       </c>
       <c r="K1" t="n">
-        <v>0.6775223712905233</v>
+        <v>0.1282128538397079</v>
       </c>
       <c r="L1" t="n">
-        <v>0.9500002564668603</v>
+        <v>0.1427055581771242</v>
       </c>
       <c r="M1" t="n">
-        <v>0.9543603997385038</v>
+        <v>0.1629826708371399</v>
       </c>
       <c r="N1" t="n">
-        <v>1.106378592461035</v>
+        <v>0.1998575243918586</v>
       </c>
       <c r="O1" t="n">
-        <v>1.307564047024443</v>
+        <v>0.246521511493242</v>
       </c>
       <c r="P1" t="n">
-        <v>1.252880586120687</v>
+        <v>0.3407268929444984</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.204160266783684</v>
+        <v>0.428592221968246</v>
       </c>
       <c r="R1" t="n">
-        <v>1.149757379584721</v>
+        <v>0.4342141085160351</v>
       </c>
       <c r="S1" t="n">
-        <v>1.092176579557939</v>
+        <v>0.4147874556896624</v>
       </c>
       <c r="T1" t="n">
-        <v>1.040277691571371</v>
+        <v>0.4092404238744504</v>
       </c>
       <c r="U1" t="n">
-        <v>0.9915397132752553</v>
+        <v>0.4042285262711831</v>
       </c>
       <c r="V1" t="n">
-        <v>0.9470922570140893</v>
+        <v>0.400965118219073</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9063780859458784</v>
+        <v>0.4390002975974397</v>
       </c>
       <c r="X1" t="n">
-        <v>0.870968329489792</v>
+        <v>0.5364784932943485</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.8403210375106341</v>
+        <v>0.5861224155750903</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8097655454505991</v>
+        <v>0.5718940502601456</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7949106662759483</v>
+        <v>0.5517831885725368</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.7900391281376399</v>
+        <v>0.5361955875699164</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.7660121121655811</v>
+        <v>0.519994431792879</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.7568303781111231</v>
+        <v>0.5042614500455606</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.7401793764765736</v>
+        <v>0.4889800520193006</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.7270982486058767</v>
+        <v>0.4745178912755823</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7095046607758904</v>
+        <v>0.4605321235370681</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.690782304209718</v>
+        <v>0.447341743662142</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6731527221262611</v>
+        <v>0.4354526588952714</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.6551383206097929</v>
+        <v>0.4236711209796032</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.6376795373021455</v>
+        <v>0.4122654816433662</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.6209772363064046</v>
+        <v>0.4015069242914249</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.605211464978052</v>
+        <v>0.3912728345010476</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.5901881891254408</v>
+        <v>0.3817678571987693</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.5759249288735204</v>
+        <v>0.3726389534422961</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.5622381860144616</v>
+        <v>0.3640485731085119</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.5491824764937413</v>
+        <v>0.3557132892232008</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.5367021840060932</v>
+        <v>0.3478881284524256</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.5248280865671628</v>
+        <v>0.3403448321264352</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.5135410490051375</v>
+        <v>0.3331715868478354</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.5026548343936517</v>
+        <v>0.3269223129698301</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.49255561865138</v>
+        <v>0.3208336513738345</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.4836355934457057</v>
+        <v>0.3165350743224679</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.5177442052500024</v>
+        <v>0.3283608119675321</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.5569120361293048</v>
+        <v>0.3438119808310479</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.5513312150628235</v>
+        <v>0.3595696688500322</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.5671431092931576</v>
+        <v>0.3838635811039655</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.5590669001426402</v>
+        <v>0.3845350705078147</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.5505752687610331</v>
+        <v>0.3920507786006694</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.5413023519287898</v>
+        <v>0.4271225231217167</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.5321808027745164</v>
+        <v>0.4212537175815292</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.5231670433954748</v>
+        <v>0.4149490313016641</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.5144487574995403</v>
+        <v>0.408320497538858</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.5059227821137167</v>
+        <v>0.4015740164155144</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.4976844733416922</v>
+        <v>0.395032070561454</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.4897200759819453</v>
+        <v>0.3886925921172499</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.48195553926003</v>
+        <v>0.3825442340367678</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.4744470357635133</v>
+        <v>0.3765773897476026</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.4671536659932917</v>
+        <v>0.3707884665102394</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.4600813893663243</v>
+        <v>0.3651750784232577</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.4532343545893096</v>
+        <v>0.3597269711773307</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.446589958830886</v>
+        <v>0.3544395332971872</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.4401222875603659</v>
+        <v>0.349307242645111</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.4339140239714604</v>
+        <v>0.3443182268741047</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.4278468666676379</v>
+        <v>0.3394714761694043</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.4222340311171387</v>
+        <v>0.3347608471631521</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.4167362616394515</v>
+        <v>0.3301765670292247</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.4158420484059229</v>
+        <v>0.3257177441670247</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.4150300320909989</v>
+        <v>0.3213757049900421</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.4123672360964112</v>
+        <v>0.3171489854686906</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.4238370391996912</v>
+        <v>0.3130307657427395</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.4274680337707394</v>
+        <v>0.3090218406522896</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.4225827223501594</v>
+        <v>0.3051120947486615</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.4183952281158032</v>
+        <v>0.3012987521950133</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.413529337048338</v>
+        <v>0.2975858115924054</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.4087174848630737</v>
+        <v>0.2939571705115296</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.4039409840796268</v>
+        <v>0.2904164136815129</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.3992549187520016</v>
+        <v>0.2869633494842551</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.3946788465484103</v>
+        <v>0.2835908424027181</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.3901572450052149</v>
+        <v>0.2802934447507445</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.3857153781779169</v>
+        <v>0.2770730365274072</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.3813358371277734</v>
+        <v>0.2739254568743942</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.3770601162939832</v>
+        <v>0.2708486009755225</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.3728752756801675</v>
+        <v>0.2678422662090391</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.3687779938177347</v>
+        <v>0.264899989494271</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.3647711646417456</v>
+        <v>0.26202308655803</v>
       </c>
       <c r="CO1" t="n">
-        <v>0.3608531737513047</v>
+        <v>0.2592075585721796</v>
       </c>
       <c r="CP1" t="n">
-        <v>0.3570192826437089</v>
+        <v>0.2564505620035734</v>
       </c>
       <c r="CQ1" t="n">
-        <v>0.3533001147741933</v>
+        <v>0.2537520037068625</v>
       </c>
       <c r="CR1" t="n">
-        <v>0.3497125395735816</v>
+        <v>0.2511089295914362</v>
       </c>
       <c r="CS1" t="n">
-        <v>0.3461126347672477</v>
+        <v>0.2485204426780957</v>
       </c>
       <c r="CT1" t="n">
-        <v>0.3427410519107748</v>
+        <v>0.2459847326330714</v>
       </c>
       <c r="CU1" t="n">
-        <v>0.3396540747592449</v>
+        <v>0.2435006219123469</v>
       </c>
       <c r="CV1" t="n">
-        <v>0.3424475034965881</v>
+        <v>0.2410669539130016</v>
       </c>
       <c r="CW1" t="n">
-        <v>0.3427296902065683</v>
+        <v>0.2386810231247822</v>
       </c>
       <c r="CX1" t="n">
-        <v>0.3494626231068474</v>
+        <v>0.2363420523773231</v>
       </c>
       <c r="CY1" t="n">
-        <v>0.3469697923863665</v>
+        <v>0.2340487170003276</v>
       </c>
       <c r="CZ1" t="n">
-        <v>0.3461108240032502</v>
+        <v>0.2318052065910644</v>
       </c>
       <c r="DA1" t="n">
-        <v>0.3432270817143274</v>
+        <v>0.2295984466455274</v>
       </c>
       <c r="DB1" t="n">
-        <v>0.3402638055018148</v>
+        <v>0.2274349872227565</v>
       </c>
       <c r="DC1" t="n">
-        <v>0.3372850418350345</v>
+        <v>0.225309919995424</v>
       </c>
       <c r="DD1" t="n">
-        <v>0.3343845892237561</v>
+        <v>0.2232251516267156</v>
       </c>
       <c r="DE1" t="n">
-        <v>0.3314025055853677</v>
+        <v>0.2211786557098245</v>
       </c>
       <c r="DF1" t="n">
-        <v>0.3284436199423517</v>
+        <v>0.21917029339073</v>
       </c>
       <c r="DG1" t="n">
-        <v>0.3254939101697101</v>
+        <v>0.217196197373444</v>
       </c>
       <c r="DH1" t="n">
-        <v>0.3226233271957432</v>
+        <v>0.2152582095166115</v>
       </c>
       <c r="DI1" t="n">
-        <v>0.3197798812591406</v>
+        <v>0.2133540048558265</v>
       </c>
       <c r="DJ1" t="n">
-        <v>0.3169848552316659</v>
+        <v>0.2114826002726642</v>
       </c>
       <c r="DK1" t="n">
-        <v>0.3142371220808596</v>
+        <v>0.2096440901696512</v>
       </c>
       <c r="DL1" t="n">
-        <v>0.3115505364746943</v>
+        <v>0.2078370736668213</v>
       </c>
       <c r="DM1" t="n">
-        <v>0.308889295160103</v>
+        <v>0.2060608097168775</v>
       </c>
       <c r="DN1" t="n">
-        <v>0.3062829982806144</v>
+        <v>0.2043146084991838</v>
       </c>
       <c r="DO1" t="n">
-        <v>0.3037098643241143</v>
+        <v>0.2026001578277201</v>
       </c>
       <c r="DP1" t="n">
-        <v>0.3011796734926246</v>
+        <v>0.200911861736238</v>
       </c>
       <c r="DQ1" t="n">
-        <v>0.2986921268516389</v>
+        <v>0.1992577927869204</v>
       </c>
       <c r="DR1" t="n">
-        <v>0.296246280337007</v>
+        <v>0.1976300960967787</v>
       </c>
       <c r="DS1" t="n">
-        <v>0.2938391320340161</v>
+        <v>0.1960335195094955</v>
       </c>
       <c r="DT1" t="n">
-        <v>0.2914700968258094</v>
+        <v>0.1944580360508072</v>
       </c>
       <c r="DU1" t="n">
-        <v>0.289150726291138</v>
+        <v>0.1929045220939646</v>
       </c>
       <c r="DV1" t="n">
-        <v>0.2868621618004886</v>
+        <v>0.1913740379148731</v>
       </c>
       <c r="DW1" t="n">
-        <v>0.2846123101506298</v>
+        <v>0.1898692019906559</v>
       </c>
       <c r="DX1" t="n">
-        <v>0.2823943983277631</v>
+        <v>0.1883863934544505</v>
       </c>
       <c r="DY1" t="n">
-        <v>0.2802062233610203</v>
+        <v>0.1869297221952675</v>
       </c>
       <c r="DZ1" t="n">
-        <v>0.2780525521179342</v>
+        <v>0.1854933055038293</v>
       </c>
       <c r="EA1" t="n">
-        <v>0.2759314116364489</v>
+        <v>0.1840798395898826</v>
       </c>
       <c r="EB1" t="n">
-        <v>0.2738462999111901</v>
+        <v>0.1826901314924402</v>
       </c>
       <c r="EC1" t="n">
-        <v>0.2717923484185956</v>
+        <v>0.1813255463752292</v>
       </c>
       <c r="ED1" t="n">
-        <v>0.2697645684830317</v>
+        <v>0.179978608446862</v>
       </c>
       <c r="EE1" t="n">
-        <v>0.2678175719328104</v>
+        <v>0.1786470469861303</v>
       </c>
       <c r="EF1" t="n">
-        <v>0.2659980269604412</v>
+        <v>0.1773393318687067</v>
       </c>
       <c r="EG1" t="n">
-        <v>0.2643827925129426</v>
+        <v>0.1760479312143345</v>
       </c>
       <c r="EH1" t="n">
-        <v>0.2685001753661085</v>
+        <v>0.1747733383423291</v>
       </c>
       <c r="EI1" t="n">
-        <v>0.269517294600735</v>
+        <v>0.1735190967832446</v>
       </c>
       <c r="EJ1" t="n">
-        <v>0.2679264502001293</v>
+        <v>0.1722806304110504</v>
       </c>
       <c r="EK1" t="n">
-        <v>0.2663376615761306</v>
+        <v>0.1710613400301826</v>
       </c>
       <c r="EL1" t="n">
-        <v>0.2663830804812207</v>
+        <v>0.169864335241892</v>
       </c>
       <c r="EM1" t="n">
-        <v>0.2747624223760021</v>
+        <v>0.1686791216136157</v>
       </c>
       <c r="EN1" t="n">
-        <v>0.2744051936107167</v>
+        <v>0.167509981518543</v>
       </c>
       <c r="EO1" t="n">
-        <v>0.2727836747484721</v>
+        <v>0.1663635982363484</v>
       </c>
       <c r="EP1" t="n">
-        <v>0.2709476561203631</v>
+        <v>0.1652246397073912</v>
       </c>
       <c r="EQ1" t="n">
-        <v>0.2691748646928908</v>
+        <v>0.1641008551950081</v>
       </c>
       <c r="ER1" t="n">
-        <v>0.2673910914163758</v>
+        <v>0.1629924166798598</v>
       </c>
       <c r="ES1" t="n">
-        <v>0.2656271604040787</v>
+        <v>0.1618994913919373</v>
       </c>
       <c r="ET1" t="n">
-        <v>0.2638730557901975</v>
+        <v>0.160820453399931</v>
       </c>
       <c r="EU1" t="n">
-        <v>0.2621325707616548</v>
+        <v>0.1597558009154738</v>
       </c>
       <c r="EV1" t="n">
-        <v>0.2604122630133241</v>
+        <v>0.1587051437985544</v>
       </c>
       <c r="EW1" t="n">
-        <v>0.2587144074433435</v>
+        <v>0.1576682609470915</v>
       </c>
       <c r="EX1" t="n">
-        <v>0.2570411150565467</v>
+        <v>0.1566452272262869</v>
       </c>
       <c r="EY1" t="n">
-        <v>0.2553883815972854</v>
+        <v>0.1556350806931723</v>
       </c>
       <c r="EZ1" t="n">
-        <v>0.2537521493617576</v>
+        <v>0.1546376965336117</v>
       </c>
       <c r="FA1" t="n">
-        <v>0.2521376596324849</v>
+        <v>0.1536551079871711</v>
       </c>
       <c r="FB1" t="n">
-        <v>0.250545537884544</v>
+        <v>0.1526898949972287</v>
       </c>
       <c r="FC1" t="n">
-        <v>0.248977507020964</v>
+        <v>0.1517319223809436</v>
       </c>
       <c r="FD1" t="n">
-        <v>0.2474480465360609</v>
+        <v>0.1507840847693721</v>
       </c>
       <c r="FE1" t="n">
-        <v>0.245952640332048</v>
+        <v>0.1498483788344032</v>
       </c>
       <c r="FF1" t="n">
-        <v>0.2444533224664887</v>
+        <v>0.1489237588723258</v>
       </c>
       <c r="FG1" t="n">
-        <v>0.2429958857673818</v>
+        <v>0.1480105444617238</v>
       </c>
       <c r="FH1" t="n">
-        <v>0.2415932227786382</v>
+        <v>0.1471095843549907</v>
       </c>
       <c r="FI1" t="n">
-        <v>0.2402836356773065</v>
+        <v>0.1462185346379542</v>
       </c>
       <c r="FJ1" t="n">
-        <v>0.2391575216287267</v>
+        <v>0.1453405604928467</v>
       </c>
       <c r="FK1" t="n">
-        <v>0.2404951116607338</v>
+        <v>0.1444714783574199</v>
       </c>
       <c r="FL1" t="n">
-        <v>0.2392010819441215</v>
+        <v>0.1436150070652248</v>
       </c>
       <c r="FM1" t="n">
-        <v>0.2389776120022016</v>
+        <v>0.1427755944085629</v>
       </c>
       <c r="FN1" t="n">
-        <v>0.2382989147338986</v>
+        <v>0.1419360407460081</v>
       </c>
       <c r="FO1" t="n">
-        <v>0.2370378571346754</v>
+        <v>0.1411062958682982</v>
       </c>
       <c r="FP1" t="n">
-        <v>0.2361808643621721</v>
+        <v>0.1402882717993704</v>
       </c>
       <c r="FQ1" t="n">
-        <v>0.2348594168219675</v>
+        <v>0.1394775796116536</v>
       </c>
       <c r="FR1" t="n">
-        <v>0.2335804320062458</v>
+        <v>0.1386761251935728</v>
       </c>
       <c r="FS1" t="n">
-        <v>0.2322811186885778</v>
+        <v>0.1378839389779332</v>
       </c>
       <c r="FT1" t="n">
-        <v>0.2309939789841659</v>
+        <v>0.1371010707394956</v>
       </c>
       <c r="FU1" t="n">
-        <v>0.2297007061000958</v>
+        <v>0.1363279057285983</v>
       </c>
       <c r="FV1" t="n">
-        <v>0.2284147468381655</v>
+        <v>0.1355622057213122</v>
       </c>
       <c r="FW1" t="n">
-        <v>0.2271417987676854</v>
+        <v>0.1348052033018193</v>
       </c>
       <c r="FX1" t="n">
-        <v>0.2258802187846075</v>
+        <v>0.1340567618932455</v>
       </c>
       <c r="FY1" t="n">
-        <v>0.2246338129154919</v>
+        <v>0.1333162681920488</v>
       </c>
       <c r="FZ1" t="n">
-        <v>0.2234003269327633</v>
+        <v>0.1325841010563626</v>
       </c>
       <c r="GA1" t="n">
-        <v>0.2221799845961468</v>
+        <v>0.1318600804280075</v>
       </c>
       <c r="GB1" t="n">
-        <v>0.220974316657334</v>
+        <v>0.1311436499783878</v>
       </c>
       <c r="GC1" t="n">
-        <v>0.2197825615455398</v>
+        <v>0.1304348186837912</v>
       </c>
       <c r="GD1" t="n">
-        <v>0.2186012991876115</v>
+        <v>0.1297336361154547</v>
       </c>
       <c r="GE1" t="n">
-        <v>0.2174324159215047</v>
+        <v>0.1290399615882094</v>
       </c>
       <c r="GF1" t="n">
-        <v>0.216276014025713</v>
+        <v>0.1283537214892417</v>
       </c>
       <c r="GG1" t="n">
-        <v>0.2151318581868174</v>
+        <v>0.1276747752574974</v>
       </c>
       <c r="GH1" t="n">
-        <v>0.2140001883048469</v>
+        <v>0.1270028316397443</v>
       </c>
       <c r="GI1" t="n">
-        <v>0.2128816935314804</v>
+        <v>0.1263380294796773</v>
       </c>
       <c r="GJ1" t="n">
-        <v>0.2117731632305957</v>
+        <v>0.1256801254963544</v>
       </c>
       <c r="GK1" t="n">
-        <v>0.2106760236542701</v>
+        <v>0.125029090131566</v>
       </c>
       <c r="GL1" t="n">
-        <v>0.2095902200713933</v>
+        <v>0.1243855194962926</v>
       </c>
       <c r="GM1" t="n">
-        <v>0.2085154771923541</v>
+        <v>0.1237478010909123</v>
       </c>
       <c r="GN1" t="n">
-        <v>0.2074518245965474</v>
+        <v>0.1231171360219657</v>
       </c>
       <c r="GO1" t="n">
-        <v>0.2063998423106358</v>
+        <v>0.1224927966896286</v>
       </c>
       <c r="GP1" t="n">
-        <v>0.2053575350666342</v>
+        <v>0.121874324543337</v>
       </c>
       <c r="GQ1" t="n">
-        <v>0.2043256924115584</v>
+        <v>0.121262627888864</v>
       </c>
       <c r="GR1" t="n">
-        <v>0.2033042378262267</v>
+        <v>0.120656628394482</v>
       </c>
       <c r="GS1" t="n">
-        <v>0.202292805531655</v>
+        <v>0.120060585844091</v>
       </c>
       <c r="GT1" t="n">
-        <v>0.201291789833924</v>
+        <v>0.1194664072511975</v>
       </c>
       <c r="GU1" t="n">
-        <v>0.2003003623313231</v>
+        <v>0.1188783379696706</v>
       </c>
       <c r="GV1" t="n">
-        <v>0.199318575476898</v>
+        <v>0.1182969469780361</v>
       </c>
       <c r="GW1" t="n">
-        <v>0.1983463402119959</v>
+        <v>0.1177203407927357</v>
       </c>
       <c r="GX1" t="n">
-        <v>0.197383572587637</v>
+        <v>0.1171490640069407</v>
       </c>
       <c r="GY1" t="n">
-        <v>0.1964301026121568</v>
+        <v>0.1165834701787703</v>
       </c>
       <c r="GZ1" t="n">
-        <v>0.1954858439020367</v>
+        <v>0.1160233915937639</v>
       </c>
       <c r="HA1" t="n">
-        <v>0.1945506451963199</v>
+        <v>0.1154693047819964</v>
       </c>
       <c r="HB1" t="n">
-        <v>0.1936243022826623</v>
+        <v>0.1149197419586114</v>
       </c>
       <c r="HC1" t="n">
-        <v>0.1927069205929257</v>
+        <v>0.1143806529358875</v>
       </c>
       <c r="HD1" t="n">
-        <v>0.1917980369927735</v>
+        <v>0.1138413237920752</v>
       </c>
       <c r="HE1" t="n">
-        <v>0.1908978369233899</v>
+        <v>0.1133072586933838</v>
       </c>
       <c r="HF1" t="n">
-        <v>0.1900081328014505</v>
+        <v>0.1127781103991362</v>
       </c>
       <c r="HG1" t="n">
-        <v>0.1891244209437082</v>
+        <v>0.1122545226975956</v>
       </c>
       <c r="HH1" t="n">
-        <v>0.1882613237229136</v>
+        <v>0.1117349688680049</v>
       </c>
       <c r="HI1" t="n">
-        <v>0.1873988669669562</v>
+        <v>0.1112201782747428</v>
       </c>
       <c r="HJ1" t="n">
-        <v>0.1865412713391241</v>
+        <v>0.1107101912208515</v>
       </c>
       <c r="HK1" t="n">
-        <v>0.1856895684733147</v>
+        <v>0.1102048589925934</v>
       </c>
       <c r="HL1" t="n">
-        <v>0.1848474587292155</v>
+        <v>0.1097039451832807</v>
       </c>
       <c r="HM1" t="n">
-        <v>0.1840110824198876</v>
+        <v>0.1092076159241965</v>
       </c>
       <c r="HN1" t="n">
-        <v>0.1831827895100892</v>
+        <v>0.1087157682395287</v>
       </c>
       <c r="HO1" t="n">
-        <v>0.1823640700991376</v>
+        <v>0.1082283894696186</v>
       </c>
       <c r="HP1" t="n">
-        <v>0.1815500204653371</v>
+        <v>0.10774525619664</v>
       </c>
       <c r="HQ1" t="n">
-        <v>0.180743213587015</v>
+        <v>0.1072664531962358</v>
       </c>
       <c r="HR1" t="n">
-        <v>0.1799435209437128</v>
+        <v>0.1067922241222853</v>
       </c>
       <c r="HS1" t="n">
-        <v>0.1791509217192067</v>
+        <v>0.1063219646926637</v>
       </c>
       <c r="HT1" t="n">
-        <v>0.1783652829498949</v>
+        <v>0.1058556957060877</v>
       </c>
       <c r="HU1" t="n">
-        <v>0.1775866090920347</v>
+        <v>0.1053934595186357</v>
       </c>
       <c r="HV1" t="n">
-        <v>0.1768145733614284</v>
+        <v>0.1049353041269049</v>
       </c>
       <c r="HW1" t="n">
-        <v>0.1760492040237647</v>
+        <v>0.1044819391984639</v>
       </c>
       <c r="HX1" t="n">
-        <v>0.1752904935397195</v>
+        <v>0.1040316481556622</v>
       </c>
       <c r="HY1" t="n">
-        <v>0.1745385270302771</v>
+        <v>0.1035851745411522</v>
       </c>
       <c r="HZ1" t="n">
-        <v>0.1737928404611818</v>
+        <v>0.1031425204958693</v>
       </c>
       <c r="IA1" t="n">
-        <v>0.1730533465754905</v>
+        <v>0.1027037048606174</v>
       </c>
       <c r="IB1" t="n">
-        <v>0.1723202618839909</v>
+        <v>0.1022687366614191</v>
       </c>
       <c r="IC1" t="n">
-        <v>0.1715932405060145</v>
+        <v>0.1018374371672412</v>
       </c>
       <c r="ID1" t="n">
-        <v>0.1708723132901346</v>
+        <v>0.1014097289713928</v>
       </c>
       <c r="IE1" t="n">
-        <v>0.1701574846700356</v>
+        <v>0.100985774637607</v>
       </c>
       <c r="IF1" t="n">
-        <v>0.169448514492176</v>
+        <v>0.1005651572574014</v>
       </c>
       <c r="IG1" t="n">
-        <v>0.1687455334984377</v>
+        <v>0.1001481894300602</v>
       </c>
       <c r="IH1" t="n">
-        <v>0.1680482915425048</v>
+        <v>0.09973445622004476</v>
       </c>
       <c r="II1" t="n">
-        <v>0.1673568448611896</v>
+        <v>0.09932410048576924</v>
       </c>
       <c r="IJ1" t="n">
-        <v>0.166671507521223</v>
+        <v>0.09891727434383582</v>
       </c>
       <c r="IK1" t="n">
-        <v>0.1659914090430261</v>
+        <v>0.09851364084339202</v>
       </c>
       <c r="IL1" t="n">
-        <v>0.1653172922717848</v>
+        <v>0.0981132001936022</v>
       </c>
       <c r="IM1" t="n">
-        <v>0.1646480391057412</v>
+        <v>0.09771619414350301</v>
       </c>
       <c r="IN1" t="n">
-        <v>0.1639841963867045</v>
+        <v>0.09732237955973749</v>
       </c>
       <c r="IO1" t="n">
-        <v>0.1633257805488713</v>
+        <v>0.09693156119713128</v>
       </c>
       <c r="IP1" t="n">
-        <v>0.1626725291500596</v>
+        <v>0.09654778786579664</v>
       </c>
       <c r="IQ1" t="n">
-        <v>0.1620245274420545</v>
+        <v>0.09616846815108303</v>
       </c>
       <c r="IR1" t="n">
-        <v>0.1613822087181513</v>
+        <v>0.095786970826937</v>
       </c>
       <c r="IS1" t="n">
-        <v>0.1607445391092138</v>
+        <v>0.09540841657602647</v>
       </c>
       <c r="IT1" t="n">
-        <v>0.1601121699831107</v>
+        <v>0.09503290727563338</v>
       </c>
       <c r="IU1" t="n">
-        <v>0.1594843451196004</v>
+        <v>0.09466027980437364</v>
       </c>
       <c r="IV1" t="n">
-        <v>0.158862248611136</v>
+        <v>0.09429063024692684</v>
       </c>
       <c r="IW1" t="n">
-        <v>0.1582460379989789</v>
+        <v>0.0939239579682592</v>
       </c>
       <c r="IX1" t="n">
-        <v>0.1576328507958236</v>
+        <v>0.09356002686893139</v>
       </c>
       <c r="IY1" t="n">
-        <v>0.1570242720131899</v>
+        <v>0.09319900499523523</v>
       </c>
       <c r="IZ1" t="n">
-        <v>0.1564203836440017</v>
+        <v>0.0928406419847036</v>
       </c>
       <c r="JA1" t="n">
-        <v>0.1558210784097567</v>
+        <v>0.09248500633415192</v>
       </c>
       <c r="JB1" t="n">
-        <v>0.155226395016349</v>
+        <v>0.09213213614972685</v>
       </c>
       <c r="JC1" t="n">
-        <v>0.1546364903573137</v>
+        <v>0.09178197915099681</v>
       </c>
       <c r="JD1" t="n">
-        <v>0.1540507958145368</v>
+        <v>0.09143440849470838</v>
       </c>
       <c r="JE1" t="n">
-        <v>0.1534698597090012</v>
+        <v>0.09108966235326821</v>
       </c>
       <c r="JF1" t="n">
-        <v>0.1528929498751178</v>
+        <v>0.09074732910436951</v>
       </c>
       <c r="JG1" t="n">
-        <v>0.1523203828529376</v>
+        <v>0.09040877925020604</v>
       </c>
       <c r="JH1" t="n">
-        <v>0.151752061817052</v>
+        <v>0.09007168790172994</v>
       </c>
       <c r="JI1" t="n">
-        <v>0.1511882150867818</v>
+        <v>0.08973697621071766</v>
       </c>
       <c r="JJ1" t="n">
-        <v>0.1506283757151565</v>
+        <v>0.08940472046979397</v>
       </c>
       <c r="JK1" t="n">
-        <v>0.1500728610112632</v>
+        <v>0.08907485885675864</v>
       </c>
       <c r="JL1" t="n">
-        <v>0.1495211740812217</v>
+        <v>0.08874747646550336</v>
       </c>
       <c r="JM1" t="n">
-        <v>0.1489735127843439</v>
+        <v>0.08842243868050449</v>
       </c>
       <c r="JN1" t="n">
-        <v>0.1484308681984262</v>
+        <v>0.08809981104522695</v>
       </c>
       <c r="JO1" t="n">
-        <v>0.1478911646694226</v>
+        <v>0.08777981102060498</v>
       </c>
       <c r="JP1" t="n">
-        <v>0.1473563543684862</v>
+        <v>0.08746190554362603</v>
       </c>
       <c r="JQ1" t="n">
-        <v>0.1468244093831943</v>
+        <v>0.08714730542942954</v>
       </c>
       <c r="JR1" t="n">
-        <v>0.1462963078144758</v>
+        <v>0.08683425559378523</v>
       </c>
       <c r="JS1" t="n">
-        <v>0.1457719652044517</v>
+        <v>0.08652316309905356</v>
       </c>
       <c r="JT1" t="n">
-        <v>0.1452513729528497</v>
+        <v>0.08621422629828078</v>
       </c>
       <c r="JU1" t="n">
-        <v>0.144734491067653</v>
+        <v>0.08590754721471122</v>
       </c>
       <c r="JV1" t="n">
-        <v>0.1442212682573679</v>
+        <v>0.08560374006749236</v>
       </c>
       <c r="JW1" t="n">
-        <v>0.1437116760980831</v>
+        <v>0.08530137370421159</v>
       </c>
       <c r="JX1" t="n">
-        <v>0.1432056853595536</v>
+        <v>0.08500105368122951</v>
       </c>
       <c r="JY1" t="n">
-        <v>0.1427032415092466</v>
+        <v>0.08470283692404179</v>
       </c>
       <c r="JZ1" t="n">
-        <v>0.1422043812870254</v>
+        <v>0.08440672102658683</v>
       </c>
       <c r="KA1" t="n">
-        <v>0.1417094332489615</v>
+        <v>0.08411263519566407</v>
       </c>
       <c r="KB1" t="n">
-        <v>0.1412174872483645</v>
+        <v>0.08382063540522998</v>
       </c>
       <c r="KC1" t="n">
-        <v>0.1407288586247878</v>
+        <v>0.08353072375690006</v>
       </c>
       <c r="KD1" t="n">
-        <v>0.1402439709905706</v>
+        <v>0.08324291012850357</v>
       </c>
       <c r="KE1" t="n">
-        <v>0.1397620940003697</v>
+        <v>0.08295700690207801</v>
       </c>
       <c r="KF1" t="n">
-        <v>0.1392835226615102</v>
+        <v>0.08267311759317884</v>
       </c>
       <c r="KG1" t="n">
-        <v>0.1388081960064563</v>
+        <v>0.08239108491226356</v>
       </c>
       <c r="KH1" t="n">
-        <v>0.1383361195590431</v>
+        <v>0.08211090604109816</v>
       </c>
       <c r="KI1" t="n">
-        <v>0.1378672038354324</v>
+        <v>0.08183280791581997</v>
       </c>
       <c r="KJ1" t="n">
-        <v>0.1374014834419086</v>
+        <v>0.08155662793549145</v>
       </c>
       <c r="KK1" t="n">
-        <v>0.136938876255635</v>
+        <v>0.08128210456676999</v>
       </c>
       <c r="KL1" t="n">
-        <v>0.1364796014049744</v>
+        <v>0.08100937060094648</v>
       </c>
       <c r="KM1" t="n">
-        <v>0.136023166086625</v>
+        <v>0.08073846891610717</v>
       </c>
       <c r="KN1" t="n">
-        <v>0.1355698393318493</v>
+        <v>0.08046941738425516</v>
       </c>
       <c r="KO1" t="n">
-        <v>0.1351194712021895</v>
+        <v>0.08020211827766377</v>
       </c>
       <c r="KP1" t="n">
-        <v>0.1346721559790487</v>
+        <v>0.0799366024688228</v>
       </c>
       <c r="KQ1" t="n">
-        <v>0.1342282614055771</v>
+        <v>0.07967281655946078</v>
       </c>
       <c r="KR1" t="n">
-        <v>0.1337869841529937</v>
+        <v>0.0794107644031861</v>
       </c>
       <c r="KS1" t="n">
-        <v>0.1333483561735216</v>
+        <v>0.07915045297558795</v>
       </c>
       <c r="KT1" t="n">
-        <v>0.132912631893807</v>
+        <v>0.07889184731548476</v>
       </c>
       <c r="KU1" t="n">
-        <v>0.1324797480915252</v>
+        <v>0.07863492901818434</v>
       </c>
       <c r="KV1" t="n">
-        <v>0.132049778086449</v>
+        <v>0.07837968475893087</v>
       </c>
       <c r="KW1" t="n">
-        <v>0.1316226246856144</v>
+        <v>0.07812616341046398</v>
       </c>
       <c r="KX1" t="n">
-        <v>0.131198446614903</v>
+        <v>0.07787422123539489</v>
       </c>
       <c r="KY1" t="n">
-        <v>0.1307767668686778</v>
+        <v>0.07762406420176371</v>
       </c>
       <c r="KZ1" t="n">
-        <v>0.1303576730449486</v>
+        <v>0.07737541119032448</v>
       </c>
       <c r="LA1" t="n">
-        <v>0.1299412051493159</v>
+        <v>0.07712829092677113</v>
       </c>
       <c r="LB1" t="n">
-        <v>0.1295275055950776</v>
+        <v>0.0768827383487222</v>
       </c>
       <c r="LC1" t="n">
-        <v>0.1291163110061434</v>
+        <v>0.07663884847661102</v>
       </c>
       <c r="LD1" t="n">
-        <v>0.1287078228497174</v>
+        <v>0.07639669615307353</v>
       </c>
       <c r="LE1" t="n">
-        <v>0.1283018100995595</v>
+        <v>0.07615596402660496</v>
       </c>
       <c r="LF1" t="n">
-        <v>0.1278983803048793</v>
+        <v>0.07591682284216217</v>
       </c>
       <c r="LG1" t="n">
-        <v>0.1274974503839326</v>
+        <v>0.0756790853115516</v>
       </c>
       <c r="LH1" t="n">
-        <v>0.1270990566785819</v>
+        <v>0.07544277902921875</v>
       </c>
       <c r="LI1" t="n">
-        <v>0.1267031173184942</v>
+        <v>0.07520790393885099</v>
       </c>
       <c r="LJ1" t="n">
-        <v>0.1263096453415036</v>
+        <v>0.07497447542843391</v>
       </c>
       <c r="LK1" t="n">
-        <v>0.1259185970916077</v>
+        <v>0.07474266883933617</v>
       </c>
       <c r="LL1" t="n">
-        <v>0.1255299874401311</v>
+        <v>0.0745121782106996</v>
       </c>
       <c r="LM1" t="n">
-        <v>0.1251437597368227</v>
+        <v>0.07428322982272195</v>
       </c>
       <c r="LN1" t="n">
-        <v>0.1247598942729135</v>
+        <v>0.07405556240992318</v>
       </c>
       <c r="LO1" t="n">
-        <v>0.1243783926013271</v>
+        <v>0.07382939605925823</v>
       </c>
       <c r="LP1" t="n">
-        <v>0.1239992266243741</v>
+        <v>0.0736047597571549</v>
       </c>
       <c r="LQ1" t="n">
-        <v>0.1236223436036181</v>
+        <v>0.0733826423952469</v>
       </c>
       <c r="LR1" t="n">
-        <v>0.1232477508886208</v>
+        <v>0.07316059076077371</v>
       </c>
       <c r="LS1" t="n">
-        <v>0.1228754177069757</v>
+        <v>0.07293975035031372</v>
       </c>
       <c r="LT1" t="n">
-        <v>0.1225060657611497</v>
+        <v>0.0727201945973287</v>
       </c>
       <c r="LU1" t="n">
-        <v>0.1221382783879159</v>
+        <v>0.07250189174078941</v>
       </c>
       <c r="LV1" t="n">
-        <v>0.1217726463379887</v>
+        <v>0.0722850544958816</v>
       </c>
       <c r="LW1" t="n">
-        <v>0.1214091647428124</v>
+        <v>0.0720693902639153</v>
       </c>
       <c r="LX1" t="n">
-        <v>0.1210480203158013</v>
+        <v>0.07185506749839388</v>
       </c>
       <c r="LY1" t="n">
-        <v>0.120688837668802</v>
+        <v>0.07164202284270434</v>
       </c>
       <c r="LZ1" t="n">
-        <v>0.1203317970380505</v>
+        <v>0.07143027476350765</v>
       </c>
       <c r="MA1" t="n">
-        <v>0.1199768444338633</v>
+        <v>0.07121962793068341</v>
       </c>
       <c r="MB1" t="n">
-        <v>0.1196241634117195</v>
+        <v>0.07101028490199236</v>
       </c>
       <c r="MC1" t="n">
-        <v>0.119273411649405</v>
+        <v>0.07080224123674984</v>
       </c>
       <c r="MD1" t="n">
-        <v>0.1189247141849791</v>
+        <v>0.07059548683255244</v>
       </c>
       <c r="ME1" t="n">
-        <v>0.1185780579863643</v>
+        <v>0.07038991834061903</v>
       </c>
       <c r="MF1" t="n">
-        <v>0.1182333917704606</v>
+        <v>0.07018535223346428</v>
       </c>
       <c r="MG1" t="n">
-        <v>0.1178906946317727</v>
+        <v>0.06998206018397934</v>
       </c>
       <c r="MH1" t="n">
-        <v>0.1175500341695908</v>
+        <v>0.06977984947052136</v>
       </c>
       <c r="MI1" t="n">
-        <v>0.117211289229802</v>
+        <v>0.06957876444447789</v>
       </c>
       <c r="MJ1" t="n">
-        <v>0.1168744925319478</v>
+        <v>0.06937885027868079</v>
       </c>
       <c r="MK1" t="n">
-        <v>0.1165396530523992</v>
+        <v>0.0691802851827179</v>
       </c>
       <c r="ML1" t="n">
-        <v>0.1162068787891151</v>
+        <v>0.06898264807445117</v>
       </c>
       <c r="MM1" t="n">
-        <v>0.115876693465409</v>
+        <v>0.068786166525809</v>
       </c>
       <c r="MN1" t="n">
-        <v>0.1155510778602423</v>
+        <v>0.06859076741092682</v>
       </c>
       <c r="MO1" t="n">
-        <v>0.115223837538613</v>
+        <v>0.06839667855690815</v>
       </c>
       <c r="MP1" t="n">
-        <v>0.1148983771459934</v>
+        <v>0.06820402164646398</v>
       </c>
       <c r="MQ1" t="n">
-        <v>0.1145747459091626</v>
+        <v>0.06801214875835</v>
       </c>
       <c r="MR1" t="n">
-        <v>0.1142529167431197</v>
+        <v>0.06782120140827003</v>
       </c>
       <c r="MS1" t="n">
-        <v>0.113932904489015</v>
+        <v>0.0676333319005238</v>
       </c>
       <c r="MT1" t="n">
-        <v>0.113614677270385</v>
+        <v>0.06744533140035446</v>
       </c>
       <c r="MU1" t="n">
-        <v>0.1132982193864406</v>
+        <v>0.06725946936808898</v>
       </c>
       <c r="MV1" t="n">
-        <v>0.1129835326134643</v>
+        <v>0.06707288137064146</v>
       </c>
       <c r="MW1" t="n">
-        <v>0.112670583566356</v>
+        <v>0.066887211025855</v>
       </c>
       <c r="MX1" t="n">
-        <v>0.1123593587406366</v>
+        <v>0.06670255120531723</v>
       </c>
       <c r="MY1" t="n">
-        <v>0.1120498376169116</v>
+        <v>0.06652088474756439</v>
       </c>
       <c r="MZ1" t="n">
-        <v>0.1117420175075905</v>
+        <v>0.06633848723037089</v>
       </c>
       <c r="NA1" t="n">
-        <v>0.1114359293870726</v>
+        <v>0.06615687340870238</v>
       </c>
       <c r="NB1" t="n">
-        <v>0.1111314817457774</v>
+        <v>0.06597622960002016</v>
       </c>
       <c r="NC1" t="n">
-        <v>0.1108286752327963</v>
+        <v>0.06580451639731984</v>
       </c>
       <c r="ND1" t="n">
-        <v>0.110527518773386</v>
+        <v>0.06562573360707002</v>
       </c>
       <c r="NE1" t="n">
-        <v>0.1102279934517768</v>
+        <v>0.06544873358784034</v>
       </c>
       <c r="NF1" t="n">
-        <v>0.1099300960365421</v>
+        <v>0.06527195816238486</v>
       </c>
       <c r="NG1" t="n">
-        <v>0.1096340952293199</v>
+        <v>0.06509679601047678</v>
       </c>
       <c r="NH1" t="n">
-        <v>0.109339400035251</v>
+        <v>0.06492217152720312</v>
       </c>
       <c r="NI1" t="n">
-        <v>0.109046316991363</v>
+        <v>0.06474858749369507</v>
       </c>
       <c r="NJ1" t="n">
-        <v>0.108754793252353</v>
+        <v>0.06457575923453925</v>
       </c>
       <c r="NK1" t="n">
-        <v>0.1084647951151496</v>
+        <v>0.064403777805964</v>
       </c>
       <c r="NL1" t="n">
-        <v>0.1081763493171198</v>
+        <v>0.06423462266683515</v>
       </c>
       <c r="NM1" t="n">
-        <v>0.1078912577242652</v>
+        <v>0.06406563904565794</v>
       </c>
       <c r="NN1" t="n">
-        <v>0.1076066565639388</v>
+        <v>0.0638968326972533</v>
       </c>
       <c r="NO1" t="n">
-        <v>0.1073228303257629</v>
+        <v>0.06372886163577651</v>
       </c>
       <c r="NP1" t="n">
-        <v>0.1070406645730938</v>
+        <v>0.06356135324786473</v>
       </c>
       <c r="NQ1" t="n">
-        <v>0.1067599667889012</v>
+        <v>0.0633948347261457</v>
       </c>
       <c r="NR1" t="n">
-        <v>0.1064809367316688</v>
+        <v>0.06322899065559041</v>
       </c>
       <c r="NS1" t="n">
-        <v>0.1062029562076274</v>
+        <v>0.06306400149591994</v>
       </c>
       <c r="NT1" t="n">
-        <v>0.1059265459435716</v>
+        <v>0.0628998007726677</v>
       </c>
       <c r="NU1" t="n">
-        <v>0.1056514859017216</v>
+        <v>0.06273646365280444</v>
       </c>
       <c r="NV1" t="n">
-        <v>0.1053780508646474</v>
+        <v>0.06257397694564412</v>
       </c>
       <c r="NW1" t="n">
-        <v>0.1051060041951548</v>
+        <v>0.06241232633464685</v>
       </c>
       <c r="NX1" t="n">
-        <v>0.1048351572668758</v>
+        <v>0.06225151053787085</v>
       </c>
       <c r="NY1" t="n">
-        <v>0.1045656677651847</v>
+        <v>0.06209154369961414</v>
       </c>
       <c r="NZ1" t="n">
-        <v>0.1042977662031147</v>
+        <v>0.06193238677626336</v>
       </c>
       <c r="OA1" t="n">
-        <v>0.104031050187375</v>
+        <v>0.0617740117930191</v>
       </c>
       <c r="OB1" t="n">
-        <v>0.1037661225919005</v>
+        <v>0.06161643826916358</v>
       </c>
       <c r="OC1" t="n">
-        <v>0.1035021014887863</v>
+        <v>0.0614596728063749</v>
       </c>
       <c r="OD1" t="n">
-        <v>0.1032412623096798</v>
+        <v>0.06130371242866199</v>
       </c>
       <c r="OE1" t="n">
-        <v>0.1029799056173459</v>
+        <v>0.06114853276194094</v>
       </c>
       <c r="OF1" t="n">
-        <v>0.1027201456537602</v>
+        <v>0.06099420146434611</v>
       </c>
       <c r="OG1" t="n">
-        <v>0.1024618516150895</v>
+        <v>0.06084086232636406</v>
       </c>
       <c r="OH1" t="n">
-        <v>0.1022048050330945</v>
+        <v>0.06068803331724881</v>
       </c>
       <c r="OI1" t="n">
-        <v>0.1019505771471082</v>
+        <v>0.06053599580703083</v>
       </c>
       <c r="OJ1" t="n">
-        <v>0.1016963469692561</v>
+        <v>0.06038478108959502</v>
       </c>
       <c r="OK1" t="n">
-        <v>0.1014444036452718</v>
+        <v>0.0602342379219345</v>
       </c>
     </row>
   </sheetData>
